--- a/RightRoyalBattlePartICase0_withanswers.xlsx
+++ b/RightRoyalBattlePartICase0_withanswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8478B59A-EB83-4844-B4FF-853DA85E6FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E63F65F-51F0-4B57-A87E-3C7BC425BABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E63FEAF0-1E5E-4907-9FA7-7687370CAB07}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="219">
   <si>
     <t>Case Author</t>
   </si>
@@ -987,10 +987,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1547,7 +1546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1612,9 +1611,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,7 +1874,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5144184</xdr:colOff>
+      <xdr:colOff>4755564</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -2382,7 +2378,9 @@
   </sheetPr>
   <dimension ref="A1:L429"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101:E120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15.6"/>
   <cols>
@@ -2391,7 +2389,7 @@
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.69921875" style="3" customWidth="1"/>
     <col min="5" max="5" width="30" style="3" customWidth="1"/>
-    <col min="6" max="6" width="2.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" style="3" customWidth="1"/>
     <col min="7" max="7" width="26" style="3" customWidth="1"/>
     <col min="8" max="8" width="67.59765625" style="3" customWidth="1"/>
     <col min="9" max="9" width="6.3984375" style="3" customWidth="1"/>
@@ -2413,46 +2411,46 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:11" ht="60.75" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" customHeight="1">
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="67"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="2:11" ht="21.6" customHeight="1">
       <c r="B5" s="1"/>
@@ -2533,10 +2531,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="67"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
       <c r="B13" s="1"/>
@@ -2549,128 +2547,128 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:11" ht="24" customHeight="1">
-      <c r="B14" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="B14" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="81"/>
     </row>
     <row r="19" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="81"/>
     </row>
     <row r="20" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="2:11" ht="26.4" customHeight="1">
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
     </row>
     <row r="24" spans="2:11" ht="23.25" customHeight="1">
       <c r="B24" s="1"/>
@@ -2683,18 +2681,18 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:11" ht="25.5" customHeight="1">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1">
       <c r="B26" s="4"/>
@@ -2717,26 +2715,26 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:11" ht="31.95" customHeight="1" thickBot="1">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
     </row>
     <row r="30" spans="2:11" ht="33.75" customHeight="1">
       <c r="B30" s="18" t="s">
@@ -2748,18 +2746,18 @@
       <c r="D30" s="20">
         <v>40</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="23">
         <f>IF(ISBLANK(E30),0,IF(E30=Answers!E30,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G30" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
     </row>
     <row r="31" spans="2:11" ht="34.200000000000003" customHeight="1">
       <c r="B31" s="15" t="s">
@@ -2771,18 +2769,18 @@
       <c r="D31" s="16">
         <v>50</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="23">
         <f>IF(ISBLANK(E31),0,IF(E31=Answers!E31,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
     </row>
     <row r="32" spans="2:11" ht="33.6" customHeight="1">
       <c r="B32" s="15" t="s">
@@ -2794,18 +2792,18 @@
       <c r="D32" s="16">
         <v>60</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="23">
         <f>IF(ISBLANK(E32),0,IF(E32=Answers!E32,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
     </row>
     <row r="33" spans="2:12" ht="21" customHeight="1">
       <c r="B33" s="4"/>
@@ -2846,27 +2844,27 @@
       <c r="L35"/>
     </row>
     <row r="36" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J36" s="66" t="s">
+      <c r="J36" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="67"/>
+      <c r="K36" s="66"/>
       <c r="L36"/>
     </row>
     <row r="37" spans="2:12" ht="15" customHeight="1">
-      <c r="J37" s="68" cm="1">
+      <c r="J37" s="67" cm="1">
         <f t="array" ref="J37">SUMPRODUCT(--($F$30:$F$187=1),$D$30:$D$187)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="69"/>
+        <v>280</v>
+      </c>
+      <c r="K37" s="68"/>
       <c r="L37"/>
     </row>
     <row r="38" spans="2:12" ht="15" customHeight="1">
@@ -2874,26 +2872,26 @@
         <v>142</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="71"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
       <c r="L38"/>
     </row>
     <row r="39" spans="2:12" ht="15" customHeight="1">
       <c r="B39" s="2"/>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="J39" s="72"/>
-      <c r="K39" s="73"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="72"/>
       <c r="L39"/>
     </row>
     <row r="40" spans="2:12" ht="15" customHeight="1">
       <c r="B40" s="2"/>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
       <c r="L40"/>
     </row>
     <row r="41" spans="2:12" ht="15" customHeight="1" thickBot="1">
@@ -2906,19 +2904,19 @@
       <c r="L41"/>
     </row>
     <row r="42" spans="2:12" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="57" t="s">
         <v>109</v>
       </c>
       <c r="H42"/>
@@ -2949,14 +2947,14 @@
       <c r="D44" s="11">
         <v>0</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>139</v>
       </c>
       <c r="F44" s="23">
         <f>IF(ISBLANK(E44),0,IF(E44=Answers!E44,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="32" t="s">
         <v>49</v>
       </c>
       <c r="H44"/>
@@ -2969,9 +2967,14 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="3" t="str">
+        <f>_xlfn.XLOOKUP(G45,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Tudor</v>
+      </c>
       <c r="F45" s="23"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -2988,12 +2991,15 @@
       <c r="D46" s="11">
         <v>4</v>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G46,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Blois</v>
+      </c>
       <c r="F46" s="23">
         <f>IF(ISBLANK(E46),0,IF(E46=Answers!E46,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H46"/>
@@ -3013,12 +3019,15 @@
       <c r="D47" s="11">
         <v>4</v>
       </c>
-      <c r="E47" s="26"/>
+      <c r="E47" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G47,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Normandy</v>
+      </c>
       <c r="F47" s="23">
         <f>IF(ISBLANK(E47),0,IF(E47=Answers!E47,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="H47"/>
@@ -3038,12 +3047,15 @@
       <c r="D48" s="11">
         <v>4</v>
       </c>
-      <c r="E48" s="26"/>
+      <c r="E48" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G48,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Tudor</v>
+      </c>
       <c r="F48" s="23">
         <f>IF(ISBLANK(E48),0,IF(E48=Answers!E48,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="32" t="s">
         <v>55</v>
       </c>
       <c r="H48"/>
@@ -3063,12 +3075,15 @@
       <c r="D49" s="11">
         <v>4</v>
       </c>
-      <c r="E49" s="26"/>
+      <c r="E49" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G49,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Plantagenet</v>
+      </c>
       <c r="F49" s="23">
         <f>IF(ISBLANK(E49),0,IF(E49=Answers!E49,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="32" t="s">
         <v>41</v>
       </c>
       <c r="H49"/>
@@ -3088,12 +3103,15 @@
       <c r="D50" s="11">
         <v>4</v>
       </c>
-      <c r="E50" s="26"/>
+      <c r="E50" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G50,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Plantagenet</v>
+      </c>
       <c r="F50" s="23">
         <f>IF(ISBLANK(E50),0,IF(E50=Answers!E50,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H50"/>
@@ -3113,12 +3131,15 @@
       <c r="D51" s="11">
         <v>4</v>
       </c>
-      <c r="E51" s="26"/>
+      <c r="E51" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G51,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Plantagenet</v>
+      </c>
       <c r="F51" s="23">
         <f>IF(ISBLANK(E51),0,IF(E51=Answers!E51,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="H51"/>
@@ -3138,12 +3159,15 @@
       <c r="D52" s="11">
         <v>4</v>
       </c>
-      <c r="E52" s="26"/>
+      <c r="E52" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G52,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Plantagenet</v>
+      </c>
       <c r="F52" s="23">
         <f>IF(ISBLANK(E52),0,IF(E52=Answers!E52,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="32" t="s">
         <v>51</v>
       </c>
       <c r="H52"/>
@@ -3163,12 +3187,15 @@
       <c r="D53" s="11">
         <v>4</v>
       </c>
-      <c r="E53" s="26"/>
+      <c r="E53" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G53,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Normandy</v>
+      </c>
       <c r="F53" s="23">
         <f>IF(ISBLANK(E53),0,IF(E53=Answers!E53,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="32" t="s">
         <v>36</v>
       </c>
       <c r="H53"/>
@@ -3188,12 +3215,15 @@
       <c r="D54" s="11">
         <v>4</v>
       </c>
-      <c r="E54" s="26"/>
+      <c r="E54" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G54,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>Lancaster</v>
+      </c>
       <c r="F54" s="23">
         <f>IF(ISBLANK(E54),0,IF(E54=Answers!E54,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H54"/>
@@ -3213,12 +3243,15 @@
       <c r="D55" s="11">
         <v>4</v>
       </c>
-      <c r="E55" s="26"/>
+      <c r="E55" s="26" t="str">
+        <f>_xlfn.XLOOKUP(G55,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$H$5:$H$29)</f>
+        <v>York</v>
+      </c>
       <c r="F55" s="23">
         <f>IF(ISBLANK(E55),0,IF(E55=Answers!E55,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="32" t="s">
         <v>53</v>
       </c>
       <c r="H55"/>
@@ -3244,10 +3277,10 @@
       <c r="L57"/>
     </row>
     <row r="58" spans="2:12" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="21" t="s">
@@ -3292,7 +3325,7 @@
     </row>
     <row r="62" spans="2:12" ht="14.85" customHeight="1">
       <c r="B62" s="7"/>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>146</v>
       </c>
       <c r="F62" s="23"/>
@@ -3304,7 +3337,7 @@
     </row>
     <row r="63" spans="2:12" ht="14.85" customHeight="1">
       <c r="B63" s="7"/>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="47" t="s">
         <v>205</v>
       </c>
       <c r="F63" s="23"/>
@@ -3325,20 +3358,20 @@
       <c r="L64"/>
     </row>
     <row r="65" spans="2:12" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F65" s="23"/>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="57" t="s">
         <v>109</v>
       </c>
       <c r="H65"/>
@@ -3370,14 +3403,14 @@
       <c r="D67" s="11">
         <v>0</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="26">
         <v>1483</v>
       </c>
       <c r="F67" s="23">
         <f>IF(ISBLANK(E67),0,IF(E67=Answers!E67,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G67" s="33" t="s">
+      <c r="G67" s="32" t="s">
         <v>54</v>
       </c>
       <c r="H67"/>
@@ -3390,8 +3423,14 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G68,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1483</v>
+      </c>
       <c r="F68" s="23"/>
+      <c r="G68" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
@@ -3408,12 +3447,15 @@
       <c r="D69" s="11">
         <v>6</v>
       </c>
-      <c r="E69" s="27"/>
+      <c r="E69" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G69,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1553</v>
+      </c>
       <c r="F69" s="23">
         <f>IF(ISBLANK(E69),0,IF(E69=Answers!E69,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="39" t="s">
         <v>34</v>
       </c>
       <c r="H69"/>
@@ -3432,12 +3474,15 @@
       <c r="D70" s="11">
         <v>6</v>
       </c>
-      <c r="E70" s="27"/>
+      <c r="E70" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G70,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1327</v>
+      </c>
       <c r="F70" s="23">
         <f>IF(ISBLANK(E70),0,IF(E70=Answers!E70,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H70"/>
@@ -3456,12 +3501,15 @@
       <c r="D71" s="11">
         <v>6</v>
       </c>
-      <c r="E71" s="27"/>
+      <c r="E71" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G71,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1558</v>
+      </c>
       <c r="F71" s="23">
         <f>IF(ISBLANK(E71),0,IF(E71=Answers!E71,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="32" t="s">
         <v>49</v>
       </c>
       <c r="H71"/>
@@ -3480,12 +3528,15 @@
       <c r="D72" s="11">
         <v>6</v>
       </c>
-      <c r="E72" s="27"/>
+      <c r="E72" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G72,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1141</v>
+      </c>
       <c r="F72" s="23">
         <f>IF(ISBLANK(E72),0,IF(E72=Answers!E72,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="39" t="s">
         <v>39</v>
       </c>
       <c r="H72"/>
@@ -3504,12 +3555,15 @@
       <c r="D73" s="11">
         <v>6</v>
       </c>
-      <c r="E73" s="27"/>
+      <c r="E73" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G73,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1199</v>
+      </c>
       <c r="F73" s="23">
         <f>IF(ISBLANK(E73),0,IF(E73=Answers!E73,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="32" t="s">
         <v>50</v>
       </c>
       <c r="H73"/>
@@ -3528,12 +3582,15 @@
       <c r="D74" s="11">
         <v>6</v>
       </c>
-      <c r="E74" s="27"/>
+      <c r="E74" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G74,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1547</v>
+      </c>
       <c r="F74" s="23">
         <f>IF(ISBLANK(E74),0,IF(E74=Answers!E74,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="39" t="s">
         <v>56</v>
       </c>
       <c r="H74"/>
@@ -3552,12 +3609,15 @@
       <c r="D75" s="11">
         <v>6</v>
       </c>
-      <c r="E75" s="27"/>
+      <c r="E75" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G75,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1461</v>
+      </c>
       <c r="F75" s="23">
         <f>IF(ISBLANK(E75),0,IF(E75=Answers!E75,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>58</v>
       </c>
       <c r="H75"/>
@@ -3576,12 +3636,15 @@
       <c r="D76" s="11">
         <v>6</v>
       </c>
-      <c r="E76" s="27"/>
+      <c r="E76" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G76,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1399</v>
+      </c>
       <c r="F76" s="23">
         <f>IF(ISBLANK(E76),0,IF(E76=Answers!E76,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H76"/>
@@ -3600,12 +3663,15 @@
       <c r="D77" s="11">
         <v>6</v>
       </c>
-      <c r="E77" s="27"/>
+      <c r="E77" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G77,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1553</v>
+      </c>
       <c r="F77" s="23">
         <f>IF(ISBLANK(E77),0,IF(E77=Answers!E77,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="39" t="s">
         <v>48</v>
       </c>
       <c r="H77"/>
@@ -3624,12 +3690,15 @@
       <c r="D78" s="11">
         <v>6</v>
       </c>
-      <c r="E78" s="27"/>
+      <c r="E78" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G78,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1509</v>
+      </c>
       <c r="F78" s="23">
         <f>IF(ISBLANK(E78),0,IF(E78=Answers!E78,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="32" t="s">
         <v>55</v>
       </c>
       <c r="H78"/>
@@ -3648,12 +3717,15 @@
       <c r="D79" s="11">
         <v>6</v>
       </c>
-      <c r="E79" s="27"/>
+      <c r="E79" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G79,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1135</v>
+      </c>
       <c r="F79" s="23">
         <f>IF(ISBLANK(E79),0,IF(E79=Answers!E79,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H79"/>
@@ -3672,12 +3744,15 @@
       <c r="D80" s="11">
         <v>6</v>
       </c>
-      <c r="E80" s="27"/>
+      <c r="E80" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G80,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1066</v>
+      </c>
       <c r="F80" s="23">
         <f>IF(ISBLANK(E80),0,IF(E80=Answers!E80,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="32" t="s">
         <v>35</v>
       </c>
       <c r="H80"/>
@@ -3696,12 +3771,15 @@
       <c r="D81" s="11">
         <v>6</v>
       </c>
-      <c r="E81" s="27"/>
+      <c r="E81" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G81,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1087</v>
+      </c>
       <c r="F81" s="23">
         <f>IF(ISBLANK(E81),0,IF(E81=Answers!E81,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="39" t="s">
         <v>36</v>
       </c>
       <c r="H81"/>
@@ -3720,12 +3798,15 @@
       <c r="D82" s="11">
         <v>6</v>
       </c>
-      <c r="E82" s="27"/>
+      <c r="E82" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G82,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1422</v>
+      </c>
       <c r="F82" s="23">
         <f>IF(ISBLANK(E82),0,IF(E82=Answers!E82,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H82"/>
@@ -3744,12 +3825,15 @@
       <c r="D83" s="11">
         <v>6</v>
       </c>
-      <c r="E83" s="27"/>
+      <c r="E83" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G83,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1307</v>
+      </c>
       <c r="F83" s="23">
         <f>IF(ISBLANK(E83),0,IF(E83=Answers!E83,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="32" t="s">
         <v>52</v>
       </c>
       <c r="H83"/>
@@ -3768,12 +3852,15 @@
       <c r="D84" s="11">
         <v>6</v>
       </c>
-      <c r="E84" s="27"/>
+      <c r="E84" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G84,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1272</v>
+      </c>
       <c r="F84" s="23">
         <f>IF(ISBLANK(E84),0,IF(E84=Answers!E84,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="32" t="s">
         <v>51</v>
       </c>
       <c r="H84"/>
@@ -3792,12 +3879,15 @@
       <c r="D85" s="11">
         <v>6</v>
       </c>
-      <c r="E85" s="27"/>
+      <c r="E85" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G85,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1483</v>
+      </c>
       <c r="F85" s="23">
         <f>IF(ISBLANK(E85),0,IF(E85=Answers!E85,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="39" t="s">
         <v>53</v>
       </c>
       <c r="H85"/>
@@ -3816,12 +3906,15 @@
       <c r="D86" s="11">
         <v>6</v>
       </c>
-      <c r="E86" s="27"/>
+      <c r="E86" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G86,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1100</v>
+      </c>
       <c r="F86" s="23">
         <f>IF(ISBLANK(E86),0,IF(E86=Answers!E86,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="32" t="s">
         <v>37</v>
       </c>
       <c r="H86"/>
@@ -3840,12 +3933,15 @@
       <c r="D87" s="11">
         <v>6</v>
       </c>
-      <c r="E87" s="27"/>
+      <c r="E87" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G87,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1485</v>
+      </c>
       <c r="F87" s="23">
         <f>IF(ISBLANK(E87),0,IF(E87=Answers!E87,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="32" t="s">
         <v>47</v>
       </c>
       <c r="H87"/>
@@ -3864,12 +3960,15 @@
       <c r="D88" s="11">
         <v>6</v>
       </c>
-      <c r="E88" s="27"/>
+      <c r="E88" s="26">
+        <f>_xlfn.TEXTAFTER(_xlfn.XLOOKUP(G88,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$C$5:$C$29),"/",2)+0</f>
+        <v>1377</v>
+      </c>
       <c r="F88" s="23">
         <f>IF(ISBLANK(E88),0,IF(E88=Answers!E88,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="39" t="s">
         <v>44</v>
       </c>
       <c r="H88"/>
@@ -3895,10 +3994,10 @@
       <c r="L90"/>
     </row>
     <row r="91" spans="2:12" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C91" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="21" t="s">
@@ -3944,7 +4043,7 @@
     </row>
     <row r="95" spans="2:12" ht="14.7" customHeight="1">
       <c r="B95" s="7"/>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="48" t="s">
         <v>206</v>
       </c>
       <c r="F95" s="23"/>
@@ -3966,20 +4065,20 @@
       <c r="L96"/>
     </row>
     <row r="97" spans="2:12" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D97" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="58" t="s">
+      <c r="E97" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F97" s="23"/>
-      <c r="G97" s="58" t="s">
+      <c r="G97" s="57" t="s">
         <v>109</v>
       </c>
       <c r="H97"/>
@@ -4011,14 +4110,14 @@
       <c r="D99" s="11">
         <v>0</v>
       </c>
-      <c r="E99" s="27">
+      <c r="E99" s="26">
         <v>4</v>
       </c>
       <c r="F99" s="23">
         <f>IF(ISBLANK(E99),0,IF(E99=Answers!E99,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G99" s="33" t="s">
+      <c r="G99" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H99"/>
@@ -4031,7 +4130,7 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="38"/>
+      <c r="E100" s="37"/>
       <c r="F100" s="23"/>
       <c r="H100"/>
       <c r="I100"/>
@@ -4049,12 +4148,15 @@
       <c r="D101" s="11">
         <v>6</v>
       </c>
-      <c r="E101" s="27"/>
+      <c r="E101" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G101,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F101" s="23">
         <f>IF(ISBLANK(E101),0,IF(E101=Answers!E101,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H101"/>
@@ -4074,12 +4176,15 @@
       <c r="D102" s="11">
         <v>6</v>
       </c>
-      <c r="E102" s="27"/>
+      <c r="E102" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G102,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>0</v>
+      </c>
       <c r="F102" s="23">
         <f>IF(ISBLANK(E102),0,IF(E102=Answers!E102,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="32" t="s">
         <v>53</v>
       </c>
       <c r="H102"/>
@@ -4099,12 +4204,15 @@
       <c r="D103" s="11">
         <v>6</v>
       </c>
-      <c r="E103" s="27"/>
+      <c r="E103" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G103,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>0</v>
+      </c>
       <c r="F103" s="23">
         <f>IF(ISBLANK(E103),0,IF(E103=Answers!E103,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="32" t="s">
         <v>42</v>
       </c>
       <c r="H103"/>
@@ -4124,12 +4232,15 @@
       <c r="D104" s="11">
         <v>6</v>
       </c>
-      <c r="E104" s="27"/>
+      <c r="E104" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G104,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>4</v>
+      </c>
       <c r="F104" s="23">
         <f>IF(ISBLANK(E104),0,IF(E104=Answers!E104,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H104"/>
@@ -4149,12 +4260,15 @@
       <c r="D105" s="11">
         <v>6</v>
       </c>
-      <c r="E105" s="27"/>
+      <c r="E105" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G105,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>0</v>
+      </c>
       <c r="F105" s="23">
         <f>IF(ISBLANK(E105),0,IF(E105=Answers!E105,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="32" t="s">
         <v>48</v>
       </c>
       <c r="H105"/>
@@ -4174,12 +4288,15 @@
       <c r="D106" s="11">
         <v>6</v>
       </c>
-      <c r="E106" s="27"/>
+      <c r="E106" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G106,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F106" s="23">
         <f>IF(ISBLANK(E106),0,IF(E106=Answers!E106,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="32" t="s">
         <v>37</v>
       </c>
       <c r="H106"/>
@@ -4199,12 +4316,15 @@
       <c r="D107" s="11">
         <v>6</v>
       </c>
-      <c r="E107" s="27"/>
+      <c r="E107" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G107,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>4</v>
+      </c>
       <c r="F107" s="23">
         <f>IF(ISBLANK(E107),0,IF(E107=Answers!E107,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H107"/>
@@ -4224,12 +4344,15 @@
       <c r="D108" s="11">
         <v>6</v>
       </c>
-      <c r="E108" s="27"/>
+      <c r="E108" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G108,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>4</v>
+      </c>
       <c r="F108" s="23">
         <f>IF(ISBLANK(E108),0,IF(E108=Answers!E108,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="32" t="s">
         <v>51</v>
       </c>
       <c r="H108"/>
@@ -4249,12 +4372,15 @@
       <c r="D109" s="11">
         <v>6</v>
       </c>
-      <c r="E109" s="27"/>
+      <c r="E109" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G109,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F109" s="23">
         <f>IF(ISBLANK(E109),0,IF(E109=Answers!E109,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="32" t="s">
         <v>35</v>
       </c>
       <c r="H109"/>
@@ -4274,12 +4400,15 @@
       <c r="D110" s="11">
         <v>6</v>
       </c>
-      <c r="E110" s="27"/>
+      <c r="E110" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G110,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>0</v>
+      </c>
       <c r="F110" s="23">
         <f>IF(ISBLANK(E110),0,IF(E110=Answers!E110,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="32" t="s">
         <v>49</v>
       </c>
       <c r="H110"/>
@@ -4299,12 +4428,15 @@
       <c r="D111" s="11">
         <v>6</v>
       </c>
-      <c r="E111" s="27"/>
+      <c r="E111" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G111,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>4</v>
+      </c>
       <c r="F111" s="23">
         <f>IF(ISBLANK(E111),0,IF(E111=Answers!E111,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="32" t="s">
         <v>58</v>
       </c>
       <c r="H111"/>
@@ -4324,12 +4456,15 @@
       <c r="D112" s="11">
         <v>6</v>
       </c>
-      <c r="E112" s="27"/>
+      <c r="E112" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G112,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F112" s="23">
         <f>IF(ISBLANK(E112),0,IF(E112=Answers!E112,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="32" t="s">
         <v>54</v>
       </c>
       <c r="H112"/>
@@ -4349,12 +4484,15 @@
       <c r="D113" s="11">
         <v>6</v>
       </c>
-      <c r="E113" s="27"/>
+      <c r="E113" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G113,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>2</v>
+      </c>
       <c r="F113" s="23">
         <f>IF(ISBLANK(E113),0,IF(E113=Answers!E113,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H113"/>
@@ -4374,12 +4512,15 @@
       <c r="D114" s="11">
         <v>6</v>
       </c>
-      <c r="E114" s="27"/>
+      <c r="E114" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G114,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>0</v>
+      </c>
       <c r="F114" s="23">
         <f>IF(ISBLANK(E114),0,IF(E114=Answers!E114,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H114"/>
@@ -4399,12 +4540,15 @@
       <c r="D115" s="11">
         <v>6</v>
       </c>
-      <c r="E115" s="27"/>
+      <c r="E115" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G115,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F115" s="23">
         <f>IF(ISBLANK(E115),0,IF(E115=Answers!E115,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="32" t="s">
         <v>36</v>
       </c>
       <c r="H115"/>
@@ -4424,12 +4568,15 @@
       <c r="D116" s="11">
         <v>6</v>
       </c>
-      <c r="E116" s="27"/>
+      <c r="E116" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G116,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F116" s="23">
         <f>IF(ISBLANK(E116),0,IF(E116=Answers!E116,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116" s="32" t="s">
         <v>50</v>
       </c>
       <c r="H116"/>
@@ -4449,12 +4596,15 @@
       <c r="D117" s="11">
         <v>6</v>
       </c>
-      <c r="E117" s="27"/>
+      <c r="E117" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G117,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F117" s="23">
         <f>IF(ISBLANK(E117),0,IF(E117=Answers!E117,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="32" t="s">
         <v>55</v>
       </c>
       <c r="H117"/>
@@ -4474,12 +4624,15 @@
       <c r="D118" s="11">
         <v>6</v>
       </c>
-      <c r="E118" s="27"/>
+      <c r="E118" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G118,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>1</v>
+      </c>
       <c r="F118" s="23">
         <f>IF(ISBLANK(E118),0,IF(E118=Answers!E118,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="32" t="s">
         <v>47</v>
       </c>
       <c r="H118"/>
@@ -4499,12 +4652,15 @@
       <c r="D119" s="11">
         <v>6</v>
       </c>
-      <c r="E119" s="27"/>
+      <c r="E119" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G119,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>3</v>
+      </c>
       <c r="F119" s="23">
         <f>IF(ISBLANK(E119),0,IF(E119=Answers!E119,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="32" t="s">
         <v>41</v>
       </c>
       <c r="H119"/>
@@ -4524,12 +4680,15 @@
       <c r="D120" s="11">
         <v>6</v>
       </c>
-      <c r="E120" s="27"/>
+      <c r="E120" s="26">
+        <f>_xlfn.LET(_xlpm.r,_xlfn.XLOOKUP(G120,'Kings and Queens'!$B$5:$B$29,'Kings and Queens'!$I$5:$I$29),IF(LEN(_xlpm.r)=0,0,LEN(_xlpm.r)- LEN(SUBSTITUTE(_xlpm.r,",",""))+1))</f>
+        <v>2</v>
+      </c>
       <c r="F120" s="23">
         <f>IF(ISBLANK(E120),0,IF(E120=Answers!E120,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="32" t="s">
         <v>39</v>
       </c>
       <c r="H120"/>
@@ -4540,43 +4699,43 @@
     </row>
     <row r="121" spans="2:12" ht="15" customHeight="1">
       <c r="F121" s="23"/>
-      <c r="I121" s="52"/>
-      <c r="J121" s="52"/>
-      <c r="K121" s="52"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
       <c r="L121"/>
     </row>
     <row r="122" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="E122" s="4"/>
       <c r="F122" s="23"/>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="52"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
       <c r="L122"/>
     </row>
     <row r="123" spans="2:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B123" s="56" t="s">
+      <c r="B123" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="57" t="s">
+      <c r="C123" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="21" t="s">
         <v>150</v>
       </c>
       <c r="F123" s="23"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
       <c r="L123"/>
     </row>
     <row r="124" spans="2:12" ht="14.7" customHeight="1">
       <c r="E124" s="4"/>
       <c r="F124" s="23"/>
-      <c r="I124" s="52"/>
-      <c r="J124" s="52"/>
-      <c r="K124" s="52"/>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
+      <c r="K124" s="51"/>
       <c r="L124"/>
     </row>
     <row r="125" spans="2:12" ht="14.7" customHeight="1">
@@ -4584,9 +4743,9 @@
         <v>149</v>
       </c>
       <c r="F125" s="23"/>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
-      <c r="K125" s="52"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="51"/>
       <c r="L125"/>
     </row>
     <row r="126" spans="2:12" ht="14.7" customHeight="1">
@@ -4594,9 +4753,9 @@
         <v>175</v>
       </c>
       <c r="F126" s="23"/>
-      <c r="I126" s="52"/>
-      <c r="J126" s="52"/>
-      <c r="K126" s="52"/>
+      <c r="I126" s="51"/>
+      <c r="J126" s="51"/>
+      <c r="K126" s="51"/>
       <c r="L126"/>
     </row>
     <row r="127" spans="2:12" ht="14.7" customHeight="1">
@@ -4605,9 +4764,9 @@
         <v>173</v>
       </c>
       <c r="F127" s="23"/>
-      <c r="I127" s="52"/>
-      <c r="J127" s="52"/>
-      <c r="K127" s="52"/>
+      <c r="I127" s="51"/>
+      <c r="J127" s="51"/>
+      <c r="K127" s="51"/>
       <c r="L127"/>
     </row>
     <row r="128" spans="2:12" ht="16.2" thickBot="1">
@@ -4615,32 +4774,32 @@
       <c r="F128" s="23"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="52"/>
-      <c r="J128" s="52"/>
-      <c r="K128" s="52"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
+      <c r="K128" s="51"/>
       <c r="L128"/>
     </row>
     <row r="129" spans="2:12" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="58" t="s">
+      <c r="C129" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="58" t="s">
+      <c r="E129" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F129" s="23"/>
-      <c r="G129" s="58" t="s">
+      <c r="G129" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="H129" s="37"/>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="52"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="51"/>
       <c r="L129"/>
     </row>
     <row r="130" spans="2:12" ht="15" customHeight="1">
@@ -4651,9 +4810,9 @@
       <c r="F130" s="23"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="52"/>
-      <c r="J130" s="52"/>
-      <c r="K130" s="52"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
+      <c r="K130" s="51"/>
       <c r="L130"/>
     </row>
     <row r="131" spans="2:12" ht="25.5" customHeight="1">
@@ -4666,20 +4825,20 @@
       <c r="D131" s="11">
         <v>0</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E131" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F131" s="23">
         <f>IF(ISBLANK(E131),0,IF(E131=Answers!E131,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G131" s="39" t="s">
+      <c r="G131" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="H131" s="44"/>
-      <c r="I131" s="52"/>
-      <c r="J131" s="52"/>
-      <c r="K131" s="52"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="51"/>
       <c r="L131"/>
     </row>
     <row r="132" spans="2:12" ht="15" customHeight="1">
@@ -4690,9 +4849,9 @@
       <c r="F132" s="23"/>
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
-      <c r="I132" s="52"/>
-      <c r="J132" s="52"/>
-      <c r="K132" s="52"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
+      <c r="K132" s="51"/>
       <c r="L132"/>
     </row>
     <row r="133" spans="2:12" ht="25.5" customHeight="1">
@@ -4705,18 +4864,18 @@
       <c r="D133" s="11">
         <v>7</v>
       </c>
-      <c r="E133" s="28"/>
+      <c r="E133" s="27"/>
       <c r="F133" s="23">
         <f>IF(ISBLANK(E133),0,IF(E133=Answers!E133,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G133" s="39" t="s">
+      <c r="G133" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="H133" s="44"/>
-      <c r="I133" s="52"/>
-      <c r="J133" s="52"/>
-      <c r="K133" s="52"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
+      <c r="K133" s="51"/>
       <c r="L133"/>
     </row>
     <row r="134" spans="2:12" ht="25.5" customHeight="1">
@@ -4730,18 +4889,18 @@
       <c r="D134" s="11">
         <v>7</v>
       </c>
-      <c r="E134" s="28"/>
+      <c r="E134" s="27"/>
       <c r="F134" s="23">
         <f>IF(ISBLANK(E134),0,IF(E134=Answers!E134,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G134" s="39" t="s">
+      <c r="G134" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="H134" s="44"/>
-      <c r="I134" s="52"/>
-      <c r="J134" s="52"/>
-      <c r="K134" s="52"/>
+      <c r="H134" s="43"/>
+      <c r="I134" s="51"/>
+      <c r="J134" s="51"/>
+      <c r="K134" s="51"/>
       <c r="L134"/>
     </row>
     <row r="135" spans="2:12" ht="25.5" customHeight="1">
@@ -4755,18 +4914,18 @@
       <c r="D135" s="11">
         <v>7</v>
       </c>
-      <c r="E135" s="28"/>
+      <c r="E135" s="27"/>
       <c r="F135" s="23">
         <f>IF(ISBLANK(E135),0,IF(E135=Answers!E135,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G135" s="39" t="s">
+      <c r="G135" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="H135" s="44"/>
-      <c r="I135" s="52"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="52"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="51"/>
+      <c r="J135" s="51"/>
+      <c r="K135" s="51"/>
       <c r="L135"/>
     </row>
     <row r="136" spans="2:12" ht="25.5" customHeight="1">
@@ -4780,18 +4939,18 @@
       <c r="D136" s="11">
         <v>7</v>
       </c>
-      <c r="E136" s="28"/>
+      <c r="E136" s="27"/>
       <c r="F136" s="23">
         <f>IF(ISBLANK(E136),0,IF(E136=Answers!E136,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G136" s="39" t="s">
+      <c r="G136" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H136" s="44"/>
-      <c r="I136" s="52"/>
-      <c r="J136" s="52"/>
-      <c r="K136" s="52"/>
+      <c r="H136" s="43"/>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51"/>
+      <c r="K136" s="51"/>
       <c r="L136"/>
     </row>
     <row r="137" spans="2:12" ht="25.5" customHeight="1">
@@ -4805,18 +4964,18 @@
       <c r="D137" s="11">
         <v>7</v>
       </c>
-      <c r="E137" s="28"/>
+      <c r="E137" s="27"/>
       <c r="F137" s="23">
         <f>IF(ISBLANK(E137),0,IF(E137=Answers!E137,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G137" s="39" t="s">
+      <c r="G137" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="H137" s="44"/>
-      <c r="I137" s="52"/>
-      <c r="J137" s="52"/>
-      <c r="K137" s="52"/>
+      <c r="H137" s="43"/>
+      <c r="I137" s="51"/>
+      <c r="J137" s="51"/>
+      <c r="K137" s="51"/>
       <c r="L137"/>
     </row>
     <row r="138" spans="2:12" ht="25.5" customHeight="1">
@@ -4830,18 +4989,18 @@
       <c r="D138" s="11">
         <v>7</v>
       </c>
-      <c r="E138" s="28"/>
+      <c r="E138" s="27"/>
       <c r="F138" s="23">
         <f>IF(ISBLANK(E138),0,IF(E138=Answers!E138,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G138" s="39" t="s">
+      <c r="G138" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="H138" s="44"/>
-      <c r="I138" s="52"/>
-      <c r="J138" s="52"/>
-      <c r="K138" s="52"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
+      <c r="K138" s="51"/>
       <c r="L138"/>
     </row>
     <row r="139" spans="2:12" ht="25.5" customHeight="1">
@@ -4855,18 +5014,18 @@
       <c r="D139" s="11">
         <v>7</v>
       </c>
-      <c r="E139" s="28"/>
+      <c r="E139" s="27"/>
       <c r="F139" s="23">
         <f>IF(ISBLANK(E139),0,IF(E139=Answers!E139,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G139" s="39" t="s">
+      <c r="G139" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="H139" s="44"/>
-      <c r="I139" s="52"/>
-      <c r="J139" s="52"/>
-      <c r="K139" s="52"/>
+      <c r="H139" s="43"/>
+      <c r="I139" s="51"/>
+      <c r="J139" s="51"/>
+      <c r="K139" s="51"/>
       <c r="L139"/>
     </row>
     <row r="140" spans="2:12" ht="25.5" customHeight="1">
@@ -4880,18 +5039,18 @@
       <c r="D140" s="11">
         <v>7</v>
       </c>
-      <c r="E140" s="28"/>
+      <c r="E140" s="27"/>
       <c r="F140" s="23">
         <f>IF(ISBLANK(E140),0,IF(E140=Answers!E140,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G140" s="39" t="s">
+      <c r="G140" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="H140" s="44"/>
-      <c r="I140" s="52"/>
-      <c r="J140" s="52"/>
-      <c r="K140" s="52"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51"/>
+      <c r="K140" s="51"/>
       <c r="L140"/>
     </row>
     <row r="141" spans="2:12" ht="25.5" customHeight="1">
@@ -4905,18 +5064,18 @@
       <c r="D141" s="11">
         <v>7</v>
       </c>
-      <c r="E141" s="28"/>
+      <c r="E141" s="27"/>
       <c r="F141" s="23">
         <f>IF(ISBLANK(E141),0,IF(E141=Answers!E141,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G141" s="39" t="s">
+      <c r="G141" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="H141" s="44"/>
-      <c r="I141" s="52"/>
-      <c r="J141" s="52"/>
-      <c r="K141" s="52"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="51"/>
+      <c r="K141" s="51"/>
       <c r="L141"/>
     </row>
     <row r="142" spans="2:12" ht="25.5" customHeight="1">
@@ -4930,18 +5089,18 @@
       <c r="D142" s="11">
         <v>7</v>
       </c>
-      <c r="E142" s="28"/>
+      <c r="E142" s="27"/>
       <c r="F142" s="23">
         <f>IF(ISBLANK(E142),0,IF(E142=Answers!E142,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G142" s="39" t="s">
+      <c r="G142" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="H142" s="44"/>
-      <c r="I142" s="52"/>
-      <c r="J142" s="52"/>
-      <c r="K142" s="52"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="51"/>
+      <c r="J142" s="51"/>
+      <c r="K142" s="51"/>
       <c r="L142"/>
     </row>
     <row r="143" spans="2:12" ht="25.5" customHeight="1">
@@ -4955,18 +5114,18 @@
       <c r="D143" s="11">
         <v>7</v>
       </c>
-      <c r="E143" s="28"/>
+      <c r="E143" s="27"/>
       <c r="F143" s="23">
         <f>IF(ISBLANK(E143),0,IF(E143=Answers!E143,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G143" s="39" t="s">
+      <c r="G143" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="H143" s="44"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="52"/>
-      <c r="K143" s="52"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="51"/>
+      <c r="K143" s="51"/>
       <c r="L143"/>
     </row>
     <row r="144" spans="2:12" ht="25.5" customHeight="1">
@@ -4980,18 +5139,18 @@
       <c r="D144" s="11">
         <v>7</v>
       </c>
-      <c r="E144" s="28"/>
+      <c r="E144" s="27"/>
       <c r="F144" s="23">
         <f>IF(ISBLANK(E144),0,IF(E144=Answers!E144,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G144" s="39" t="s">
+      <c r="G144" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="H144" s="44"/>
-      <c r="I144" s="52"/>
-      <c r="J144" s="52"/>
-      <c r="K144" s="52"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="51"/>
+      <c r="J144" s="51"/>
+      <c r="K144" s="51"/>
       <c r="L144"/>
     </row>
     <row r="145" spans="1:12" ht="25.5" customHeight="1">
@@ -5005,18 +5164,18 @@
       <c r="D145" s="11">
         <v>7</v>
       </c>
-      <c r="E145" s="28"/>
+      <c r="E145" s="27"/>
       <c r="F145" s="23">
         <f>IF(ISBLANK(E145),0,IF(E145=Answers!E145,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G145" s="39" t="s">
+      <c r="G145" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="H145" s="44"/>
-      <c r="I145" s="52"/>
-      <c r="J145" s="52"/>
-      <c r="K145" s="52"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="51"/>
+      <c r="K145" s="51"/>
       <c r="L145"/>
     </row>
     <row r="146" spans="1:12" ht="25.5" customHeight="1">
@@ -5030,18 +5189,18 @@
       <c r="D146" s="11">
         <v>7</v>
       </c>
-      <c r="E146" s="28"/>
+      <c r="E146" s="27"/>
       <c r="F146" s="23">
         <f>IF(ISBLANK(E146),0,IF(E146=Answers!E146,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G146" s="39" t="s">
+      <c r="G146" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H146" s="44"/>
-      <c r="I146" s="52"/>
-      <c r="J146" s="52"/>
-      <c r="K146" s="52"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="51"/>
+      <c r="J146" s="51"/>
+      <c r="K146" s="51"/>
       <c r="L146"/>
     </row>
     <row r="147" spans="1:12" ht="25.5" customHeight="1">
@@ -5055,18 +5214,18 @@
       <c r="D147" s="11">
         <v>7</v>
       </c>
-      <c r="E147" s="28"/>
+      <c r="E147" s="27"/>
       <c r="F147" s="23">
         <f>IF(ISBLANK(E147),0,IF(E147=Answers!E147,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G147" s="39" t="s">
+      <c r="G147" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="H147" s="44"/>
-      <c r="I147" s="52"/>
-      <c r="J147" s="52"/>
-      <c r="K147" s="52"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="51"/>
+      <c r="K147" s="51"/>
       <c r="L147"/>
     </row>
     <row r="148" spans="1:12" ht="25.5" customHeight="1">
@@ -5080,18 +5239,18 @@
       <c r="D148" s="11">
         <v>7</v>
       </c>
-      <c r="E148" s="28"/>
+      <c r="E148" s="27"/>
       <c r="F148" s="23">
         <f>IF(ISBLANK(E148),0,IF(E148=Answers!E148,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G148" s="39" t="s">
+      <c r="G148" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H148" s="44"/>
-      <c r="I148" s="52"/>
-      <c r="J148" s="52"/>
-      <c r="K148" s="52"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="51"/>
+      <c r="J148" s="51"/>
+      <c r="K148" s="51"/>
       <c r="L148"/>
     </row>
     <row r="149" spans="1:12" ht="25.5" customHeight="1">
@@ -5105,18 +5264,18 @@
       <c r="D149" s="11">
         <v>7</v>
       </c>
-      <c r="E149" s="28"/>
+      <c r="E149" s="27"/>
       <c r="F149" s="23">
         <f>IF(ISBLANK(E149),0,IF(E149=Answers!E149,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G149" s="39" t="s">
+      <c r="G149" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="H149" s="44"/>
-      <c r="I149" s="52"/>
-      <c r="J149" s="52"/>
-      <c r="K149" s="52"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="51"/>
+      <c r="K149" s="51"/>
       <c r="L149"/>
     </row>
     <row r="150" spans="1:12" ht="25.5" customHeight="1">
@@ -5130,18 +5289,18 @@
       <c r="D150" s="11">
         <v>7</v>
       </c>
-      <c r="E150" s="28"/>
+      <c r="E150" s="27"/>
       <c r="F150" s="23">
         <f>IF(ISBLANK(E150),0,IF(E150=Answers!E150,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G150" s="39" t="s">
+      <c r="G150" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="H150" s="44"/>
-      <c r="I150" s="52"/>
-      <c r="J150" s="52"/>
-      <c r="K150" s="52"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="51"/>
+      <c r="J150" s="51"/>
+      <c r="K150" s="51"/>
       <c r="L150"/>
     </row>
     <row r="151" spans="1:12" ht="25.5" customHeight="1">
@@ -5155,18 +5314,18 @@
       <c r="D151" s="11">
         <v>7</v>
       </c>
-      <c r="E151" s="28"/>
+      <c r="E151" s="27"/>
       <c r="F151" s="23">
         <f>IF(ISBLANK(E151),0,IF(E151=Answers!E151,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G151" s="39" t="s">
+      <c r="G151" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="H151" s="44"/>
-      <c r="I151" s="52"/>
-      <c r="J151" s="52"/>
-      <c r="K151" s="52"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="51"/>
+      <c r="K151" s="51"/>
       <c r="L151"/>
     </row>
     <row r="152" spans="1:12" ht="25.5" customHeight="1">
@@ -5180,56 +5339,56 @@
       <c r="D152" s="11">
         <v>7</v>
       </c>
-      <c r="E152" s="28"/>
+      <c r="E152" s="27"/>
       <c r="F152" s="23">
         <f>IF(ISBLANK(E152),0,IF(E152=Answers!E152,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G152" s="39" t="s">
+      <c r="G152" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="H152" s="44"/>
-      <c r="I152" s="52"/>
-      <c r="J152" s="52"/>
-      <c r="K152" s="52"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="51"/>
+      <c r="J152" s="51"/>
+      <c r="K152" s="51"/>
       <c r="L152"/>
     </row>
     <row r="153" spans="1:12" ht="15" customHeight="1">
       <c r="F153" s="23"/>
       <c r="G153" s="8"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="52"/>
-      <c r="K153" s="52"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
       <c r="L153"/>
     </row>
     <row r="154" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="F154" s="23"/>
-      <c r="I154" s="52"/>
-      <c r="J154" s="52"/>
-      <c r="K154" s="52"/>
+      <c r="I154" s="51"/>
+      <c r="J154" s="51"/>
+      <c r="K154" s="51"/>
       <c r="L154"/>
     </row>
     <row r="155" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B155" s="56" t="s">
+      <c r="B155" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="57" t="s">
+      <c r="C155" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D155" s="21" t="s">
         <v>174</v>
       </c>
       <c r="F155" s="23"/>
-      <c r="I155" s="52"/>
-      <c r="J155" s="52"/>
-      <c r="K155" s="52"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="51"/>
+      <c r="K155" s="51"/>
       <c r="L155"/>
     </row>
     <row r="156" spans="1:12" ht="14.7" customHeight="1">
       <c r="F156" s="23"/>
-      <c r="I156" s="52"/>
-      <c r="J156" s="52"/>
-      <c r="K156" s="52"/>
+      <c r="I156" s="51"/>
+      <c r="J156" s="51"/>
+      <c r="K156" s="51"/>
       <c r="L156"/>
     </row>
     <row r="157" spans="1:12" ht="14.7" customHeight="1">
@@ -5237,9 +5396,9 @@
         <v>176</v>
       </c>
       <c r="F157" s="23"/>
-      <c r="I157" s="52"/>
-      <c r="J157" s="52"/>
-      <c r="K157" s="52"/>
+      <c r="I157" s="51"/>
+      <c r="J157" s="51"/>
+      <c r="K157" s="51"/>
       <c r="L157"/>
     </row>
     <row r="158" spans="1:12" ht="14.7" customHeight="1">
@@ -5253,9 +5412,9 @@
       <c r="F158" s="23"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
-      <c r="I158" s="52"/>
-      <c r="J158" s="52"/>
-      <c r="K158" s="52"/>
+      <c r="I158" s="51"/>
+      <c r="J158" s="51"/>
+      <c r="K158" s="51"/>
       <c r="L158"/>
     </row>
     <row r="159" spans="1:12" ht="14.7" customHeight="1">
@@ -5264,9 +5423,9 @@
       </c>
       <c r="C159" s="4"/>
       <c r="F159" s="23"/>
-      <c r="I159" s="52"/>
-      <c r="J159" s="52"/>
-      <c r="K159" s="52"/>
+      <c r="I159" s="51"/>
+      <c r="J159" s="51"/>
+      <c r="K159" s="51"/>
       <c r="L159"/>
     </row>
     <row r="160" spans="1:12" ht="14.7" customHeight="1">
@@ -5275,9 +5434,9 @@
         <v>201</v>
       </c>
       <c r="F160" s="23"/>
-      <c r="I160" s="52"/>
-      <c r="J160" s="52"/>
-      <c r="K160" s="52"/>
+      <c r="I160" s="51"/>
+      <c r="J160" s="51"/>
+      <c r="K160" s="51"/>
       <c r="L160"/>
     </row>
     <row r="161" spans="2:12">
@@ -5285,32 +5444,32 @@
       <c r="F161" s="23"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
-      <c r="I161" s="52"/>
-      <c r="J161" s="52"/>
-      <c r="K161" s="52"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="51"/>
+      <c r="K161" s="51"/>
       <c r="L161"/>
     </row>
     <row r="162" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B162" s="59" t="s">
+      <c r="B162" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C162" s="59" t="s">
+      <c r="C162" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="59" t="s">
+      <c r="D162" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="59" t="s">
+      <c r="E162" s="58" t="s">
         <v>6</v>
       </c>
       <c r="F162" s="23"/>
-      <c r="G162" s="63" t="s">
+      <c r="G162" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="H162" s="64"/>
-      <c r="I162" s="52"/>
-      <c r="J162" s="52"/>
-      <c r="K162" s="52"/>
+      <c r="H162" s="63"/>
+      <c r="I162" s="51"/>
+      <c r="J162" s="51"/>
+      <c r="K162" s="51"/>
       <c r="L162"/>
     </row>
     <row r="163" spans="2:12" ht="15" customHeight="1">
@@ -5319,7 +5478,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="23"/>
-      <c r="G163" s="36"/>
+      <c r="G163" s="35"/>
       <c r="H163" s="13"/>
       <c r="I163"/>
       <c r="J163"/>
@@ -5336,17 +5495,17 @@
       <c r="D164" s="11">
         <v>0</v>
       </c>
-      <c r="E164" s="27" t="s">
+      <c r="E164" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F164" s="23">
         <f>IF(ISBLANK(E164),0,IF(E164=Answers!E164,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G164" s="45" t="s">
+      <c r="G164" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="H164" s="45"/>
+      <c r="H164" s="44"/>
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164"/>
@@ -5376,15 +5535,15 @@
       <c r="D166" s="11">
         <v>9</v>
       </c>
-      <c r="E166" s="27"/>
+      <c r="E166" s="26"/>
       <c r="F166" s="23">
         <f>IF(ISBLANK(E166),0,IF(E166=Answers!E166,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G166" s="45" t="s">
+      <c r="G166" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="H166" s="45"/>
+      <c r="H166" s="44"/>
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166"/>
@@ -5401,15 +5560,15 @@
       <c r="D167" s="11">
         <v>9</v>
       </c>
-      <c r="E167" s="27"/>
+      <c r="E167" s="26"/>
       <c r="F167" s="23">
         <f>IF(ISBLANK(E167),0,IF(E167=Answers!E167,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G167" s="45" t="s">
+      <c r="G167" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H167" s="45"/>
+      <c r="H167" s="44"/>
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167"/>
@@ -5426,15 +5585,15 @@
       <c r="D168" s="11">
         <v>9</v>
       </c>
-      <c r="E168" s="27"/>
+      <c r="E168" s="26"/>
       <c r="F168" s="23">
         <f>IF(ISBLANK(E168),0,IF(E168=Answers!E168,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G168" s="45" t="s">
+      <c r="G168" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="H168" s="45"/>
+      <c r="H168" s="44"/>
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168"/>
@@ -5451,15 +5610,15 @@
       <c r="D169" s="11">
         <v>9</v>
       </c>
-      <c r="E169" s="27"/>
+      <c r="E169" s="26"/>
       <c r="F169" s="23">
         <f>IF(ISBLANK(E169),0,IF(E169=Answers!E169,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G169" s="45" t="s">
+      <c r="G169" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="H169" s="45"/>
+      <c r="H169" s="44"/>
       <c r="I169"/>
       <c r="J169"/>
       <c r="K169"/>
@@ -5476,15 +5635,15 @@
       <c r="D170" s="11">
         <v>9</v>
       </c>
-      <c r="E170" s="27"/>
+      <c r="E170" s="26"/>
       <c r="F170" s="23">
         <f>IF(ISBLANK(E170),0,IF(E170=Answers!E170,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G170" s="45" t="s">
+      <c r="G170" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="H170" s="45"/>
+      <c r="H170" s="44"/>
       <c r="I170"/>
       <c r="J170"/>
       <c r="K170"/>
@@ -5501,15 +5660,15 @@
       <c r="D171" s="11">
         <v>9</v>
       </c>
-      <c r="E171" s="27"/>
+      <c r="E171" s="26"/>
       <c r="F171" s="23">
         <f>IF(ISBLANK(E171),0,IF(E171=Answers!E171,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G171" s="45" t="s">
+      <c r="G171" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="H171" s="45"/>
+      <c r="H171" s="44"/>
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171"/>
@@ -5526,15 +5685,15 @@
       <c r="D172" s="11">
         <v>9</v>
       </c>
-      <c r="E172" s="27"/>
+      <c r="E172" s="26"/>
       <c r="F172" s="23">
         <f>IF(ISBLANK(E172),0,IF(E172=Answers!E172,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G172" s="45" t="s">
+      <c r="G172" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="H172" s="45"/>
+      <c r="H172" s="44"/>
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172"/>
@@ -5551,15 +5710,15 @@
       <c r="D173" s="11">
         <v>9</v>
       </c>
-      <c r="E173" s="27"/>
+      <c r="E173" s="26"/>
       <c r="F173" s="23">
         <f>IF(ISBLANK(E173),0,IF(E173=Answers!E173,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G173" s="45" t="s">
+      <c r="G173" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="H173" s="45"/>
+      <c r="H173" s="44"/>
       <c r="I173"/>
       <c r="J173"/>
       <c r="K173"/>
@@ -5576,15 +5735,15 @@
       <c r="D174" s="11">
         <v>9</v>
       </c>
-      <c r="E174" s="27"/>
+      <c r="E174" s="26"/>
       <c r="F174" s="23">
         <f>IF(ISBLANK(E174),0,IF(E174=Answers!E174,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G174" s="45" t="s">
+      <c r="G174" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="H174" s="45"/>
+      <c r="H174" s="44"/>
       <c r="I174"/>
       <c r="J174"/>
       <c r="K174"/>
@@ -5601,15 +5760,15 @@
       <c r="D175" s="11">
         <v>9</v>
       </c>
-      <c r="E175" s="27"/>
+      <c r="E175" s="26"/>
       <c r="F175" s="23">
         <f>IF(ISBLANK(E175),0,IF(E175=Answers!E175,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G175" s="45" t="s">
+      <c r="G175" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H175" s="45"/>
+      <c r="H175" s="44"/>
       <c r="I175"/>
       <c r="J175"/>
       <c r="K175"/>
@@ -5626,15 +5785,15 @@
       <c r="D176" s="11">
         <v>9</v>
       </c>
-      <c r="E176" s="27"/>
+      <c r="E176" s="26"/>
       <c r="F176" s="23">
         <f>IF(ISBLANK(E176),0,IF(E176=Answers!E176,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G176" s="45" t="s">
+      <c r="G176" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="H176" s="45"/>
+      <c r="H176" s="44"/>
       <c r="I176"/>
       <c r="J176"/>
       <c r="K176"/>
@@ -5651,15 +5810,15 @@
       <c r="D177" s="11">
         <v>9</v>
       </c>
-      <c r="E177" s="27"/>
+      <c r="E177" s="26"/>
       <c r="F177" s="23">
         <f>IF(ISBLANK(E177),0,IF(E177=Answers!E177,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G177" s="45" t="s">
+      <c r="G177" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="H177" s="45"/>
+      <c r="H177" s="44"/>
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177"/>
@@ -5676,15 +5835,15 @@
       <c r="D178" s="11">
         <v>9</v>
       </c>
-      <c r="E178" s="27"/>
+      <c r="E178" s="26"/>
       <c r="F178" s="23">
         <f>IF(ISBLANK(E178),0,IF(E178=Answers!E178,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G178" s="45" t="s">
+      <c r="G178" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="H178" s="46"/>
+      <c r="H178" s="45"/>
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178"/>
@@ -5701,15 +5860,15 @@
       <c r="D179" s="11">
         <v>9</v>
       </c>
-      <c r="E179" s="27"/>
+      <c r="E179" s="26"/>
       <c r="F179" s="23">
         <f>IF(ISBLANK(E179),0,IF(E179=Answers!E179,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G179" s="45" t="s">
+      <c r="G179" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="H179" s="46"/>
+      <c r="H179" s="45"/>
       <c r="I179"/>
       <c r="J179"/>
       <c r="K179"/>
@@ -5726,15 +5885,15 @@
       <c r="D180" s="11">
         <v>9</v>
       </c>
-      <c r="E180" s="27"/>
+      <c r="E180" s="26"/>
       <c r="F180" s="23">
         <f>IF(ISBLANK(E180),0,IF(E180=Answers!E180,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G180" s="45" t="s">
+      <c r="G180" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H180" s="46"/>
+      <c r="H180" s="45"/>
       <c r="I180"/>
       <c r="J180"/>
       <c r="K180"/>
@@ -5751,15 +5910,15 @@
       <c r="D181" s="11">
         <v>9</v>
       </c>
-      <c r="E181" s="27"/>
+      <c r="E181" s="26"/>
       <c r="F181" s="23">
         <f>IF(ISBLANK(E181),0,IF(E181=Answers!E181,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G181" s="45" t="s">
+      <c r="G181" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="H181" s="46"/>
+      <c r="H181" s="45"/>
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181"/>
@@ -5776,15 +5935,15 @@
       <c r="D182" s="11">
         <v>9</v>
       </c>
-      <c r="E182" s="27"/>
+      <c r="E182" s="26"/>
       <c r="F182" s="23">
         <f>IF(ISBLANK(E182),0,IF(E182=Answers!E182,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G182" s="45" t="s">
+      <c r="G182" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="H182" s="46"/>
+      <c r="H182" s="45"/>
       <c r="I182"/>
       <c r="J182"/>
       <c r="K182"/>
@@ -5801,15 +5960,15 @@
       <c r="D183" s="11">
         <v>9</v>
       </c>
-      <c r="E183" s="27"/>
+      <c r="E183" s="26"/>
       <c r="F183" s="23">
         <f>IF(ISBLANK(E183),0,IF(E183=Answers!E183,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G183" s="45" t="s">
+      <c r="G183" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="H183" s="46"/>
+      <c r="H183" s="45"/>
       <c r="I183"/>
       <c r="J183"/>
       <c r="K183"/>
@@ -5826,15 +5985,15 @@
       <c r="D184" s="11">
         <v>9</v>
       </c>
-      <c r="E184" s="27"/>
+      <c r="E184" s="26"/>
       <c r="F184" s="23">
         <f>IF(ISBLANK(E184),0,IF(E184=Answers!E184,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G184" s="45" t="s">
+      <c r="G184" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H184" s="46"/>
+      <c r="H184" s="45"/>
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184"/>
@@ -5851,15 +6010,15 @@
       <c r="D185" s="11">
         <v>9</v>
       </c>
-      <c r="E185" s="27"/>
+      <c r="E185" s="26"/>
       <c r="F185" s="23">
         <f>IF(ISBLANK(E185),0,IF(E185=Answers!E185,1,-1))</f>
         <v>0</v>
       </c>
-      <c r="G185" s="45" t="s">
+      <c r="G185" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H185" s="46"/>
+      <c r="H185" s="45"/>
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185"/>
@@ -6265,7 +6424,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F44:F64 F66:F96 F98:F128 F130:F161 F163:F185</xm:sqref>
+          <xm:sqref>F66:F96 F98:F128 F130:F161 F163:F185 F44:F64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{1031A410-801D-46D6-B471-A89C8FAE70DD}">
@@ -6356,7 +6515,9 @@
   </sheetPr>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A89" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15.6"/>
   <cols>
@@ -6394,50 +6555,50 @@
     </row>
     <row r="2" spans="1:12" ht="60.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="67"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="21.6" customHeight="1">
@@ -6548,10 +6709,10 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="67"/>
+      <c r="K12" s="66"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
@@ -6570,146 +6731,146 @@
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
+      <c r="B14" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="26.4" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="81"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="26.4" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="26.4" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="26.4" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="81"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="26.4" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="81"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="26.4" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="26.4" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="81"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="26.4" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="26.4" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="23.25" customHeight="1">
@@ -6728,18 +6889,18 @@
     </row>
     <row r="25" spans="1:12" ht="25.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
@@ -6788,26 +6949,26 @@
     </row>
     <row r="29" spans="1:12" ht="31.95" customHeight="1" thickBot="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="33.6" customHeight="1">
@@ -6821,20 +6982,20 @@
       <c r="D30" s="20">
         <v>40</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <v>1424</v>
       </c>
       <c r="F30" s="23">
         <f>IF(ISBLANK(E30),0,IF(E30=Answers!E30,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G30" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="33.6" customHeight="1">
@@ -6848,20 +7009,20 @@
       <c r="D31" s="16">
         <v>50</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="30" t="s">
         <v>42</v>
       </c>
       <c r="F31" s="23">
         <f>IF(ISBLANK(E31),0,IF(E31=Answers!E31,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="33.6" customHeight="1">
@@ -6875,20 +7036,20 @@
       <c r="D32" s="16">
         <v>60</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>136</v>
       </c>
       <c r="F32" s="23">
         <f>IF(ISBLANK(E32),0,IF(E32=Answers!E32,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="21" customHeight="1">
@@ -6937,10 +7098,10 @@
     </row>
     <row r="36" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -6951,10 +7112,10 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="66" t="s">
+      <c r="J36" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="67"/>
+      <c r="K36" s="66"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
@@ -6967,11 +7128,11 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="68" cm="1">
+      <c r="J37" s="67" cm="1">
         <f t="array" ref="J37">SUMPRODUCT(--($F$30:$F$187=1),$D$30:$D$187)</f>
         <v>750</v>
       </c>
-      <c r="K37" s="69"/>
+      <c r="K37" s="68"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
@@ -6986,14 +7147,14 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="71"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>212</v>
       </c>
       <c r="D39" s="3"/>
@@ -7002,14 +7163,14 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="73"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="72"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>207</v>
       </c>
       <c r="D40" s="3"/>
@@ -7018,8 +7179,8 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" thickBot="1">
@@ -7032,29 +7193,29 @@
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="25.5" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="1"/>
@@ -7077,17 +7238,17 @@
       <c r="D44" s="11">
         <v>0</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>139</v>
       </c>
       <c r="F44" s="23">
         <f>IF(ISBLANK(E44),0,IF(E44=Answers!E44,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="43"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="1"/>
@@ -7110,17 +7271,17 @@
       <c r="D46" s="11">
         <v>4</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>33</v>
       </c>
       <c r="F46" s="23">
         <f>IF(ISBLANK(E46),0,IF(E46=Answers!E46,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="32"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:12" ht="25.5" customHeight="1">
       <c r="A47" s="1"/>
@@ -7134,17 +7295,17 @@
       <c r="D47" s="11">
         <v>4</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="23">
         <f>IF(ISBLANK(E47),0,IF(E47=Answers!E47,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="32"/>
+      <c r="H47" s="31"/>
     </row>
     <row r="48" spans="1:12" ht="25.5" customHeight="1">
       <c r="A48" s="1"/>
@@ -7158,17 +7319,17 @@
       <c r="D48" s="11">
         <v>4</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>139</v>
       </c>
       <c r="F48" s="23">
         <f>IF(ISBLANK(E48),0,IF(E48=Answers!E48,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="32"/>
+      <c r="H48" s="31"/>
     </row>
     <row r="49" spans="1:8" ht="25.5" customHeight="1">
       <c r="A49" s="1"/>
@@ -7182,17 +7343,17 @@
       <c r="D49" s="11">
         <v>4</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>136</v>
       </c>
       <c r="F49" s="23">
         <f>IF(ISBLANK(E49),0,IF(E49=Answers!E49,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="32"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" spans="1:8" ht="25.5" customHeight="1">
       <c r="A50" s="1"/>
@@ -7206,17 +7367,17 @@
       <c r="D50" s="11">
         <v>4</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="26" t="s">
         <v>136</v>
       </c>
       <c r="F50" s="23">
         <f>IF(ISBLANK(E50),0,IF(E50=Answers!E50,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="32"/>
+      <c r="H50" s="31"/>
     </row>
     <row r="51" spans="1:8" ht="25.5" customHeight="1">
       <c r="A51" s="1"/>
@@ -7230,17 +7391,17 @@
       <c r="D51" s="11">
         <v>4</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="26" t="s">
         <v>136</v>
       </c>
       <c r="F51" s="23">
         <f>IF(ISBLANK(E51),0,IF(E51=Answers!E51,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="32"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" spans="1:8" ht="25.5" customHeight="1">
       <c r="A52" s="1"/>
@@ -7254,17 +7415,17 @@
       <c r="D52" s="11">
         <v>4</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>136</v>
       </c>
       <c r="F52" s="23">
         <f>IF(ISBLANK(E52),0,IF(E52=Answers!E52,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="32"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8" ht="25.5" customHeight="1">
       <c r="A53" s="1"/>
@@ -7278,17 +7439,17 @@
       <c r="D53" s="11">
         <v>4</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F53" s="23">
         <f>IF(ISBLANK(E53),0,IF(E53=Answers!E53,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="32"/>
+      <c r="H53" s="31"/>
     </row>
     <row r="54" spans="1:8" ht="25.5" customHeight="1">
       <c r="A54" s="1"/>
@@ -7302,17 +7463,17 @@
       <c r="D54" s="11">
         <v>4</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F54" s="23">
         <f>IF(ISBLANK(E54),0,IF(E54=Answers!E54,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="32"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" spans="1:8" ht="25.5" customHeight="1">
       <c r="A55" s="1"/>
@@ -7326,17 +7487,17 @@
       <c r="D55" s="11">
         <v>4</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>138</v>
       </c>
       <c r="F55" s="23">
         <f>IF(ISBLANK(E55),0,IF(E55=Answers!E55,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="32"/>
+      <c r="H55" s="31"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1">
       <c r="A56" s="1"/>
@@ -7360,10 +7521,10 @@
     </row>
     <row r="58" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="21" t="s">
@@ -7411,7 +7572,7 @@
     <row r="62" spans="1:8" ht="14.7" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="33" t="s">
         <v>146</v>
       </c>
       <c r="D62" s="3"/>
@@ -7423,7 +7584,7 @@
     <row r="63" spans="1:8" ht="14.7" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="47" t="s">
         <v>205</v>
       </c>
       <c r="D63" s="3"/>
@@ -7444,23 +7605,23 @@
     </row>
     <row r="65" spans="1:8" ht="24.6" customHeight="1" thickBot="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F65" s="23"/>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H65" s="35"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1">
       <c r="A66" s="1"/>
@@ -7483,17 +7644,17 @@
       <c r="D67" s="11">
         <v>0</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="26">
         <v>1483</v>
       </c>
       <c r="F67" s="23">
         <f>IF(ISBLANK(E67),0,IF(E67=Answers!E67,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G67" s="33" t="s">
+      <c r="G67" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="32"/>
+      <c r="H67" s="31"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1">
       <c r="A68" s="1"/>
@@ -7503,7 +7664,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="23"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="32"/>
+      <c r="H68" s="31"/>
     </row>
     <row r="69" spans="1:8" ht="25.5" customHeight="1">
       <c r="A69" s="1"/>
@@ -7516,17 +7677,17 @@
       <c r="D69" s="11">
         <v>6</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="26">
         <v>1553</v>
       </c>
       <c r="F69" s="23">
         <f>IF(ISBLANK(E69),0,IF(E69=Answers!E69,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G69" s="40" t="s">
+      <c r="G69" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H69" s="32"/>
+      <c r="H69" s="31"/>
     </row>
     <row r="70" spans="1:8" ht="25.5" customHeight="1">
       <c r="A70" s="1"/>
@@ -7539,17 +7700,17 @@
       <c r="D70" s="11">
         <v>6</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="26">
         <v>1327</v>
       </c>
       <c r="F70" s="23">
         <f>IF(ISBLANK(E70),0,IF(E70=Answers!E70,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H70" s="32"/>
+      <c r="H70" s="31"/>
     </row>
     <row r="71" spans="1:8" ht="25.5" customHeight="1">
       <c r="A71" s="1"/>
@@ -7562,17 +7723,17 @@
       <c r="D71" s="11">
         <v>6</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="26">
         <v>1558</v>
       </c>
       <c r="F71" s="23">
         <f>IF(ISBLANK(E71),0,IF(E71=Answers!E71,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H71" s="32"/>
+      <c r="H71" s="31"/>
     </row>
     <row r="72" spans="1:8" ht="25.5" customHeight="1">
       <c r="A72" s="1"/>
@@ -7585,17 +7746,17 @@
       <c r="D72" s="11">
         <v>6</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="26">
         <v>1141</v>
       </c>
       <c r="F72" s="23">
         <f>IF(ISBLANK(E72),0,IF(E72=Answers!E72,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G72" s="40" t="s">
+      <c r="G72" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="32"/>
+      <c r="H72" s="31"/>
     </row>
     <row r="73" spans="1:8" ht="25.5" customHeight="1">
       <c r="A73" s="1"/>
@@ -7608,17 +7769,17 @@
       <c r="D73" s="11">
         <v>6</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E73" s="26">
         <v>1199</v>
       </c>
       <c r="F73" s="23">
         <f>IF(ISBLANK(E73),0,IF(E73=Answers!E73,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G73" s="33" t="s">
+      <c r="G73" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H73" s="32"/>
+      <c r="H73" s="31"/>
     </row>
     <row r="74" spans="1:8" ht="25.5" customHeight="1">
       <c r="A74" s="1"/>
@@ -7631,17 +7792,17 @@
       <c r="D74" s="11">
         <v>6</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E74" s="26">
         <v>1547</v>
       </c>
       <c r="F74" s="23">
         <f>IF(ISBLANK(E74),0,IF(E74=Answers!E74,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G74" s="40" t="s">
+      <c r="G74" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="32"/>
+      <c r="H74" s="31"/>
     </row>
     <row r="75" spans="1:8" ht="25.5" customHeight="1">
       <c r="A75" s="1"/>
@@ -7654,17 +7815,17 @@
       <c r="D75" s="11">
         <v>6</v>
       </c>
-      <c r="E75" s="27">
+      <c r="E75" s="26">
         <v>1461</v>
       </c>
       <c r="F75" s="23">
         <f>IF(ISBLANK(E75),0,IF(E75=Answers!E75,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="32"/>
+      <c r="H75" s="31"/>
     </row>
     <row r="76" spans="1:8" ht="25.5" customHeight="1">
       <c r="A76" s="1"/>
@@ -7677,17 +7838,17 @@
       <c r="D76" s="11">
         <v>6</v>
       </c>
-      <c r="E76" s="27">
+      <c r="E76" s="26">
         <v>1399</v>
       </c>
       <c r="F76" s="23">
         <f>IF(ISBLANK(E76),0,IF(E76=Answers!E76,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G76" s="33" t="s">
+      <c r="G76" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H76" s="32"/>
+      <c r="H76" s="31"/>
     </row>
     <row r="77" spans="1:8" ht="25.5" customHeight="1">
       <c r="A77" s="1"/>
@@ -7700,17 +7861,17 @@
       <c r="D77" s="11">
         <v>6</v>
       </c>
-      <c r="E77" s="27">
+      <c r="E77" s="26">
         <v>1553</v>
       </c>
       <c r="F77" s="23">
         <f>IF(ISBLANK(E77),0,IF(E77=Answers!E77,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G77" s="40" t="s">
+      <c r="G77" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H77" s="32"/>
+      <c r="H77" s="31"/>
     </row>
     <row r="78" spans="1:8" ht="25.5" customHeight="1">
       <c r="A78" s="1"/>
@@ -7723,17 +7884,17 @@
       <c r="D78" s="11">
         <v>6</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E78" s="26">
         <v>1509</v>
       </c>
       <c r="F78" s="23">
         <f>IF(ISBLANK(E78),0,IF(E78=Answers!E78,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H78" s="32"/>
+      <c r="H78" s="31"/>
     </row>
     <row r="79" spans="1:8" ht="25.5" customHeight="1">
       <c r="A79" s="1"/>
@@ -7746,17 +7907,17 @@
       <c r="D79" s="11">
         <v>6</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E79" s="26">
         <v>1135</v>
       </c>
       <c r="F79" s="23">
         <f>IF(ISBLANK(E79),0,IF(E79=Answers!E79,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H79" s="32"/>
+      <c r="H79" s="31"/>
     </row>
     <row r="80" spans="1:8" ht="25.5" customHeight="1">
       <c r="A80" s="1"/>
@@ -7769,17 +7930,17 @@
       <c r="D80" s="11">
         <v>6</v>
       </c>
-      <c r="E80" s="27">
+      <c r="E80" s="26">
         <v>1066</v>
       </c>
       <c r="F80" s="23">
         <f>IF(ISBLANK(E80),0,IF(E80=Answers!E80,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H80" s="32"/>
+      <c r="H80" s="31"/>
     </row>
     <row r="81" spans="1:8" ht="25.5" customHeight="1">
       <c r="A81" s="1"/>
@@ -7792,17 +7953,17 @@
       <c r="D81" s="11">
         <v>6</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E81" s="26">
         <v>1087</v>
       </c>
       <c r="F81" s="23">
         <f>IF(ISBLANK(E81),0,IF(E81=Answers!E81,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G81" s="40" t="s">
+      <c r="G81" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="32"/>
+      <c r="H81" s="31"/>
     </row>
     <row r="82" spans="1:8" ht="25.5" customHeight="1">
       <c r="A82" s="1"/>
@@ -7815,17 +7976,17 @@
       <c r="D82" s="11">
         <v>6</v>
       </c>
-      <c r="E82" s="27">
+      <c r="E82" s="26">
         <v>1422</v>
       </c>
       <c r="F82" s="23">
         <f>IF(ISBLANK(E82),0,IF(E82=Answers!E82,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G82" s="40" t="s">
+      <c r="G82" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="32"/>
+      <c r="H82" s="31"/>
     </row>
     <row r="83" spans="1:8" ht="25.5" customHeight="1">
       <c r="A83" s="1"/>
@@ -7838,17 +7999,17 @@
       <c r="D83" s="11">
         <v>6</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E83" s="26">
         <v>1307</v>
       </c>
       <c r="F83" s="23">
         <f>IF(ISBLANK(E83),0,IF(E83=Answers!E83,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H83" s="32"/>
+      <c r="H83" s="31"/>
     </row>
     <row r="84" spans="1:8" ht="25.5" customHeight="1">
       <c r="A84" s="1"/>
@@ -7861,17 +8022,17 @@
       <c r="D84" s="11">
         <v>6</v>
       </c>
-      <c r="E84" s="27">
+      <c r="E84" s="26">
         <v>1272</v>
       </c>
       <c r="F84" s="23">
         <f>IF(ISBLANK(E84),0,IF(E84=Answers!E84,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H84" s="32"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="1:8" ht="25.5" customHeight="1">
       <c r="A85" s="1"/>
@@ -7884,17 +8045,17 @@
       <c r="D85" s="11">
         <v>6</v>
       </c>
-      <c r="E85" s="27">
+      <c r="E85" s="26">
         <v>1483</v>
       </c>
       <c r="F85" s="23">
         <f>IF(ISBLANK(E85),0,IF(E85=Answers!E85,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G85" s="40" t="s">
+      <c r="G85" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H85" s="32"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" ht="25.5" customHeight="1">
       <c r="A86" s="1"/>
@@ -7907,17 +8068,17 @@
       <c r="D86" s="11">
         <v>6</v>
       </c>
-      <c r="E86" s="27">
+      <c r="E86" s="26">
         <v>1100</v>
       </c>
       <c r="F86" s="23">
         <f>IF(ISBLANK(E86),0,IF(E86=Answers!E86,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H86" s="32"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="1:8" ht="25.5" customHeight="1">
       <c r="A87" s="1"/>
@@ -7930,17 +8091,17 @@
       <c r="D87" s="11">
         <v>6</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E87" s="26">
         <v>1485</v>
       </c>
       <c r="F87" s="23">
         <f>IF(ISBLANK(E87),0,IF(E87=Answers!E87,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H87" s="32"/>
+      <c r="H87" s="31"/>
     </row>
     <row r="88" spans="1:8" ht="25.5" customHeight="1">
       <c r="A88" s="1"/>
@@ -7953,17 +8114,17 @@
       <c r="D88" s="11">
         <v>6</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E88" s="26">
         <v>1377</v>
       </c>
       <c r="F88" s="23">
         <f>IF(ISBLANK(E88),0,IF(E88=Answers!E88,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G88" s="40" t="s">
+      <c r="G88" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H88" s="32"/>
+      <c r="H88" s="31"/>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1">
       <c r="A89" s="1"/>
@@ -7973,7 +8134,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="23"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="32"/>
+      <c r="H89" s="31"/>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A90" s="1"/>
@@ -7987,10 +8148,10 @@
     </row>
     <row r="91" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C91" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="21" t="s">
@@ -7999,7 +8160,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="23"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="41"/>
+      <c r="H91" s="40"/>
     </row>
     <row r="92" spans="1:8" ht="14.85" customHeight="1">
       <c r="A92" s="1"/>
@@ -8038,7 +8199,7 @@
     <row r="95" spans="1:8" ht="14.7" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="48" t="s">
         <v>206</v>
       </c>
       <c r="D95" s="3"/>
@@ -8059,23 +8220,23 @@
     </row>
     <row r="97" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="58" t="s">
+      <c r="D97" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="58" t="s">
+      <c r="E97" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F97" s="23"/>
-      <c r="G97" s="58" t="s">
+      <c r="G97" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="H97" s="35"/>
+      <c r="H97" s="34"/>
     </row>
     <row r="98" spans="1:8" ht="15" customHeight="1">
       <c r="A98" s="1"/>
@@ -8098,27 +8259,27 @@
       <c r="D99" s="11">
         <v>0</v>
       </c>
-      <c r="E99" s="27">
+      <c r="E99" s="26">
         <v>4</v>
       </c>
       <c r="F99" s="23">
         <f>IF(ISBLANK(E99),0,IF(E99=Answers!E99,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G99" s="33" t="s">
+      <c r="G99" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H99" s="32"/>
+      <c r="H99" s="31"/>
     </row>
     <row r="100" spans="1:8" ht="15" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="38"/>
+      <c r="E100" s="37"/>
       <c r="F100" s="23"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="32"/>
+      <c r="H100" s="31"/>
     </row>
     <row r="101" spans="1:8" ht="25.5" customHeight="1">
       <c r="A101" s="1"/>
@@ -8131,17 +8292,17 @@
       <c r="D101" s="11">
         <v>6</v>
       </c>
-      <c r="E101" s="27">
+      <c r="E101" s="26">
         <v>1</v>
       </c>
       <c r="F101" s="23">
         <f>IF(ISBLANK(E101),0,IF(E101=Answers!E101,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G101" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H101" s="32"/>
+      <c r="H101" s="31"/>
     </row>
     <row r="102" spans="1:8" ht="25.5" customHeight="1">
       <c r="A102" s="1"/>
@@ -8155,17 +8316,17 @@
       <c r="D102" s="11">
         <v>6</v>
       </c>
-      <c r="E102" s="27">
+      <c r="E102" s="26">
         <v>0</v>
       </c>
       <c r="F102" s="23">
         <f>IF(ISBLANK(E102),0,IF(E102=Answers!E102,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G102" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H102" s="32"/>
+      <c r="H102" s="31"/>
     </row>
     <row r="103" spans="1:8" ht="25.5" customHeight="1">
       <c r="A103" s="1"/>
@@ -8179,17 +8340,17 @@
       <c r="D103" s="11">
         <v>6</v>
       </c>
-      <c r="E103" s="27">
+      <c r="E103" s="26">
         <v>0</v>
       </c>
       <c r="F103" s="23">
         <f>IF(ISBLANK(E103),0,IF(E103=Answers!E103,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H103" s="32"/>
+      <c r="H103" s="31"/>
     </row>
     <row r="104" spans="1:8" ht="25.5" customHeight="1">
       <c r="A104" s="1"/>
@@ -8203,17 +8364,17 @@
       <c r="D104" s="11">
         <v>6</v>
       </c>
-      <c r="E104" s="27">
+      <c r="E104" s="26">
         <v>4</v>
       </c>
       <c r="F104" s="23">
         <f>IF(ISBLANK(E104),0,IF(E104=Answers!E104,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H104" s="32"/>
+      <c r="H104" s="31"/>
     </row>
     <row r="105" spans="1:8" ht="25.5" customHeight="1">
       <c r="A105" s="1"/>
@@ -8227,17 +8388,17 @@
       <c r="D105" s="11">
         <v>6</v>
       </c>
-      <c r="E105" s="27">
+      <c r="E105" s="26">
         <v>0</v>
       </c>
       <c r="F105" s="23">
         <f>IF(ISBLANK(E105),0,IF(E105=Answers!E105,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H105" s="32"/>
+      <c r="H105" s="31"/>
     </row>
     <row r="106" spans="1:8" ht="25.5" customHeight="1">
       <c r="A106" s="1"/>
@@ -8251,17 +8412,17 @@
       <c r="D106" s="11">
         <v>6</v>
       </c>
-      <c r="E106" s="27">
+      <c r="E106" s="26">
         <v>1</v>
       </c>
       <c r="F106" s="23">
         <f>IF(ISBLANK(E106),0,IF(E106=Answers!E106,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="G106" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H106" s="32"/>
+      <c r="H106" s="31"/>
     </row>
     <row r="107" spans="1:8" ht="25.5" customHeight="1">
       <c r="A107" s="1"/>
@@ -8275,17 +8436,17 @@
       <c r="D107" s="11">
         <v>6</v>
       </c>
-      <c r="E107" s="27">
+      <c r="E107" s="26">
         <v>4</v>
       </c>
       <c r="F107" s="23">
         <f>IF(ISBLANK(E107),0,IF(E107=Answers!E107,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G107" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H107" s="32"/>
+      <c r="H107" s="31"/>
     </row>
     <row r="108" spans="1:8" ht="25.5" customHeight="1">
       <c r="A108" s="1"/>
@@ -8299,17 +8460,17 @@
       <c r="D108" s="11">
         <v>6</v>
       </c>
-      <c r="E108" s="27">
+      <c r="E108" s="26">
         <v>4</v>
       </c>
       <c r="F108" s="23">
         <f>IF(ISBLANK(E108),0,IF(E108=Answers!E108,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="H108" s="32"/>
+      <c r="H108" s="31"/>
     </row>
     <row r="109" spans="1:8" ht="25.5" customHeight="1">
       <c r="A109" s="1"/>
@@ -8323,17 +8484,17 @@
       <c r="D109" s="11">
         <v>6</v>
       </c>
-      <c r="E109" s="27">
+      <c r="E109" s="26">
         <v>1</v>
       </c>
       <c r="F109" s="23">
         <f>IF(ISBLANK(E109),0,IF(E109=Answers!E109,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H109" s="32"/>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8" ht="25.5" customHeight="1">
       <c r="A110" s="1"/>
@@ -8347,17 +8508,17 @@
       <c r="D110" s="11">
         <v>6</v>
       </c>
-      <c r="E110" s="27">
+      <c r="E110" s="26">
         <v>0</v>
       </c>
       <c r="F110" s="23">
         <f>IF(ISBLANK(E110),0,IF(E110=Answers!E110,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H110" s="32"/>
+      <c r="H110" s="31"/>
     </row>
     <row r="111" spans="1:8" ht="25.5" customHeight="1">
       <c r="A111" s="1"/>
@@ -8371,17 +8532,17 @@
       <c r="D111" s="11">
         <v>6</v>
       </c>
-      <c r="E111" s="27">
+      <c r="E111" s="26">
         <v>4</v>
       </c>
       <c r="F111" s="23">
         <f>IF(ISBLANK(E111),0,IF(E111=Answers!E111,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G111" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H111" s="32"/>
+      <c r="H111" s="31"/>
     </row>
     <row r="112" spans="1:8" ht="25.5" customHeight="1">
       <c r="A112" s="1"/>
@@ -8395,17 +8556,17 @@
       <c r="D112" s="11">
         <v>6</v>
       </c>
-      <c r="E112" s="27">
+      <c r="E112" s="26">
         <v>1</v>
       </c>
       <c r="F112" s="23">
         <f>IF(ISBLANK(E112),0,IF(E112=Answers!E112,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G112" s="33" t="s">
+      <c r="G112" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H112" s="32"/>
+      <c r="H112" s="31"/>
     </row>
     <row r="113" spans="1:8" ht="25.5" customHeight="1">
       <c r="A113" s="1"/>
@@ -8419,17 +8580,17 @@
       <c r="D113" s="11">
         <v>6</v>
       </c>
-      <c r="E113" s="27">
+      <c r="E113" s="26">
         <v>2</v>
       </c>
       <c r="F113" s="23">
         <f>IF(ISBLANK(E113),0,IF(E113=Answers!E113,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H113" s="32"/>
+      <c r="H113" s="31"/>
     </row>
     <row r="114" spans="1:8" ht="25.5" customHeight="1">
       <c r="A114" s="1"/>
@@ -8443,17 +8604,17 @@
       <c r="D114" s="11">
         <v>6</v>
       </c>
-      <c r="E114" s="27">
+      <c r="E114" s="26">
         <v>0</v>
       </c>
       <c r="F114" s="23">
         <f>IF(ISBLANK(E114),0,IF(E114=Answers!E114,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="G114" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H114" s="32"/>
+      <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:8" ht="25.5" customHeight="1">
       <c r="A115" s="1"/>
@@ -8467,17 +8628,17 @@
       <c r="D115" s="11">
         <v>6</v>
       </c>
-      <c r="E115" s="27">
+      <c r="E115" s="26">
         <v>1</v>
       </c>
       <c r="F115" s="23">
         <f>IF(ISBLANK(E115),0,IF(E115=Answers!E115,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G115" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H115" s="32"/>
+      <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:8" ht="25.5" customHeight="1">
       <c r="A116" s="1"/>
@@ -8491,17 +8652,17 @@
       <c r="D116" s="11">
         <v>6</v>
       </c>
-      <c r="E116" s="27">
+      <c r="E116" s="26">
         <v>1</v>
       </c>
       <c r="F116" s="23">
         <f>IF(ISBLANK(E116),0,IF(E116=Answers!E116,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G116" s="33" t="s">
+      <c r="G116" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H116" s="32"/>
+      <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:8" ht="25.5" customHeight="1">
       <c r="A117" s="1"/>
@@ -8515,17 +8676,17 @@
       <c r="D117" s="11">
         <v>6</v>
       </c>
-      <c r="E117" s="27">
+      <c r="E117" s="26">
         <v>1</v>
       </c>
       <c r="F117" s="23">
         <f>IF(ISBLANK(E117),0,IF(E117=Answers!E117,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H117" s="32"/>
+      <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" customHeight="1">
       <c r="A118" s="1"/>
@@ -8539,17 +8700,17 @@
       <c r="D118" s="11">
         <v>6</v>
       </c>
-      <c r="E118" s="27">
+      <c r="E118" s="26">
         <v>1</v>
       </c>
       <c r="F118" s="23">
         <f>IF(ISBLANK(E118),0,IF(E118=Answers!E118,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H118" s="32"/>
+      <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:8" ht="25.5" customHeight="1">
       <c r="A119" s="1"/>
@@ -8563,17 +8724,17 @@
       <c r="D119" s="11">
         <v>6</v>
       </c>
-      <c r="E119" s="27">
+      <c r="E119" s="26">
         <v>3</v>
       </c>
       <c r="F119" s="23">
         <f>IF(ISBLANK(E119),0,IF(E119=Answers!E119,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H119" s="32"/>
+      <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:8" ht="25.5" customHeight="1">
       <c r="A120" s="1"/>
@@ -8587,17 +8748,17 @@
       <c r="D120" s="11">
         <v>6</v>
       </c>
-      <c r="E120" s="27">
+      <c r="E120" s="26">
         <v>2</v>
       </c>
       <c r="F120" s="23">
         <f>IF(ISBLANK(E120),0,IF(E120=Answers!E120,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="32"/>
+      <c r="H120" s="31"/>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1">
       <c r="A121" s="1"/>
@@ -8621,10 +8782,10 @@
     </row>
     <row r="123" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="56" t="s">
+      <c r="B123" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="57" t="s">
+      <c r="C123" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="21" t="s">
@@ -8632,8 +8793,8 @@
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="23"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
     </row>
     <row r="124" spans="1:8" ht="14.7" customHeight="1">
       <c r="A124" s="1"/>
@@ -8693,23 +8854,23 @@
     </row>
     <row r="129" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C129" s="58" t="s">
+      <c r="C129" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="58" t="s">
+      <c r="D129" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="58" t="s">
+      <c r="E129" s="57" t="s">
         <v>6</v>
       </c>
       <c r="F129" s="23"/>
-      <c r="G129" s="58" t="s">
+      <c r="G129" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="H129" s="37"/>
+      <c r="H129" s="36"/>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1">
       <c r="A130" s="1"/>
@@ -8732,17 +8893,17 @@
       <c r="D131" s="11">
         <v>0</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E131" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F131" s="23">
         <f>IF(ISBLANK(E131),0,IF(E131=Answers!E131,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G131" s="39" t="s">
+      <c r="G131" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="H131" s="44"/>
+      <c r="H131" s="43"/>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1">
       <c r="A132" s="1"/>
@@ -8765,17 +8926,17 @@
       <c r="D133" s="11">
         <v>7</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="E133" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F133" s="23">
         <f>IF(ISBLANK(E133),0,IF(E133=Answers!E133,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G133" s="39" t="s">
+      <c r="G133" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="H133" s="44"/>
+      <c r="H133" s="43"/>
     </row>
     <row r="134" spans="1:8" ht="25.5" customHeight="1">
       <c r="A134" s="1"/>
@@ -8789,17 +8950,17 @@
       <c r="D134" s="11">
         <v>7</v>
       </c>
-      <c r="E134" s="28" t="s">
+      <c r="E134" s="27" t="s">
         <v>57</v>
       </c>
       <c r="F134" s="23">
         <f>IF(ISBLANK(E134),0,IF(E134=Answers!E134,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G134" s="39" t="s">
+      <c r="G134" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="H134" s="44"/>
+      <c r="H134" s="43"/>
     </row>
     <row r="135" spans="1:8" ht="25.5" customHeight="1">
       <c r="A135" s="1"/>
@@ -8813,17 +8974,17 @@
       <c r="D135" s="11">
         <v>7</v>
       </c>
-      <c r="E135" s="28" t="s">
+      <c r="E135" s="27" t="s">
         <v>58</v>
       </c>
       <c r="F135" s="23">
         <f>IF(ISBLANK(E135),0,IF(E135=Answers!E135,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G135" s="39" t="s">
+      <c r="G135" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="H135" s="44"/>
+      <c r="H135" s="43"/>
     </row>
     <row r="136" spans="1:8" ht="25.5" customHeight="1">
       <c r="A136" s="1"/>
@@ -8837,17 +8998,17 @@
       <c r="D136" s="11">
         <v>7</v>
       </c>
-      <c r="E136" s="28" t="s">
+      <c r="E136" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F136" s="23">
         <f>IF(ISBLANK(E136),0,IF(E136=Answers!E136,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G136" s="39" t="s">
+      <c r="G136" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H136" s="44"/>
+      <c r="H136" s="43"/>
     </row>
     <row r="137" spans="1:8" ht="25.5" customHeight="1">
       <c r="A137" s="1"/>
@@ -8861,17 +9022,17 @@
       <c r="D137" s="11">
         <v>7</v>
       </c>
-      <c r="E137" s="28" t="s">
+      <c r="E137" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F137" s="23">
         <f>IF(ISBLANK(E137),0,IF(E137=Answers!E137,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G137" s="39" t="s">
+      <c r="G137" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="H137" s="44"/>
+      <c r="H137" s="43"/>
     </row>
     <row r="138" spans="1:8" ht="25.5" customHeight="1">
       <c r="A138" s="1"/>
@@ -8885,17 +9046,17 @@
       <c r="D138" s="11">
         <v>7</v>
       </c>
-      <c r="E138" s="28" t="s">
+      <c r="E138" s="27" t="s">
         <v>36</v>
       </c>
       <c r="F138" s="23">
         <f>IF(ISBLANK(E138),0,IF(E138=Answers!E138,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G138" s="39" t="s">
+      <c r="G138" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="H138" s="44"/>
+      <c r="H138" s="43"/>
     </row>
     <row r="139" spans="1:8" ht="25.5" customHeight="1">
       <c r="A139" s="1"/>
@@ -8909,17 +9070,17 @@
       <c r="D139" s="11">
         <v>7</v>
       </c>
-      <c r="E139" s="28" t="s">
+      <c r="E139" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="23">
         <f>IF(ISBLANK(E139),0,IF(E139=Answers!E139,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G139" s="39" t="s">
+      <c r="G139" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="H139" s="44"/>
+      <c r="H139" s="43"/>
     </row>
     <row r="140" spans="1:8" ht="25.5" customHeight="1">
       <c r="A140" s="1"/>
@@ -8933,17 +9094,17 @@
       <c r="D140" s="11">
         <v>7</v>
       </c>
-      <c r="E140" s="28" t="s">
+      <c r="E140" s="27" t="s">
         <v>58</v>
       </c>
       <c r="F140" s="23">
         <f>IF(ISBLANK(E140),0,IF(E140=Answers!E140,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G140" s="39" t="s">
+      <c r="G140" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="H140" s="44"/>
+      <c r="H140" s="43"/>
     </row>
     <row r="141" spans="1:8" ht="25.5" customHeight="1">
       <c r="A141" s="1"/>
@@ -8957,17 +9118,17 @@
       <c r="D141" s="11">
         <v>7</v>
       </c>
-      <c r="E141" s="28" t="s">
+      <c r="E141" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F141" s="23">
         <f>IF(ISBLANK(E141),0,IF(E141=Answers!E141,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G141" s="39" t="s">
+      <c r="G141" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="H141" s="44"/>
+      <c r="H141" s="43"/>
     </row>
     <row r="142" spans="1:8" ht="25.5" customHeight="1">
       <c r="A142" s="1"/>
@@ -8981,17 +9142,17 @@
       <c r="D142" s="11">
         <v>7</v>
       </c>
-      <c r="E142" s="28" t="s">
+      <c r="E142" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F142" s="23">
         <f>IF(ISBLANK(E142),0,IF(E142=Answers!E142,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G142" s="39" t="s">
+      <c r="G142" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="H142" s="44"/>
+      <c r="H142" s="43"/>
     </row>
     <row r="143" spans="1:8" ht="25.5" customHeight="1">
       <c r="A143" s="1"/>
@@ -9005,17 +9166,17 @@
       <c r="D143" s="11">
         <v>7</v>
       </c>
-      <c r="E143" s="28" t="s">
+      <c r="E143" s="27" t="s">
         <v>37</v>
       </c>
       <c r="F143" s="23">
         <f>IF(ISBLANK(E143),0,IF(E143=Answers!E143,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G143" s="39" t="s">
+      <c r="G143" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="H143" s="44"/>
+      <c r="H143" s="43"/>
     </row>
     <row r="144" spans="1:8" ht="25.5" customHeight="1">
       <c r="A144" s="1"/>
@@ -9029,17 +9190,17 @@
       <c r="D144" s="11">
         <v>7</v>
       </c>
-      <c r="E144" s="28" t="s">
+      <c r="E144" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F144" s="23">
         <f>IF(ISBLANK(E144),0,IF(E144=Answers!E144,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G144" s="39" t="s">
+      <c r="G144" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="H144" s="44"/>
+      <c r="H144" s="43"/>
     </row>
     <row r="145" spans="1:8" ht="25.5" customHeight="1">
       <c r="A145" s="1"/>
@@ -9053,17 +9214,17 @@
       <c r="D145" s="11">
         <v>7</v>
       </c>
-      <c r="E145" s="28" t="s">
+      <c r="E145" s="27" t="s">
         <v>58</v>
       </c>
       <c r="F145" s="23">
         <f>IF(ISBLANK(E145),0,IF(E145=Answers!E145,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G145" s="39" t="s">
+      <c r="G145" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="H145" s="44"/>
+      <c r="H145" s="43"/>
     </row>
     <row r="146" spans="1:8" ht="25.5" customHeight="1">
       <c r="A146" s="1"/>
@@ -9077,17 +9238,17 @@
       <c r="D146" s="11">
         <v>7</v>
       </c>
-      <c r="E146" s="28" t="s">
+      <c r="E146" s="27" t="s">
         <v>58</v>
       </c>
       <c r="F146" s="23">
         <f>IF(ISBLANK(E146),0,IF(E146=Answers!E146,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G146" s="39" t="s">
+      <c r="G146" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H146" s="44"/>
+      <c r="H146" s="43"/>
     </row>
     <row r="147" spans="1:8" ht="25.5" customHeight="1">
       <c r="A147" s="1"/>
@@ -9101,17 +9262,17 @@
       <c r="D147" s="11">
         <v>7</v>
       </c>
-      <c r="E147" s="28" t="s">
+      <c r="E147" s="27" t="s">
         <v>41</v>
       </c>
       <c r="F147" s="23">
         <f>IF(ISBLANK(E147),0,IF(E147=Answers!E147,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G147" s="39" t="s">
+      <c r="G147" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="H147" s="44"/>
+      <c r="H147" s="43"/>
     </row>
     <row r="148" spans="1:8" ht="25.5" customHeight="1">
       <c r="A148" s="1"/>
@@ -9125,17 +9286,17 @@
       <c r="D148" s="11">
         <v>7</v>
       </c>
-      <c r="E148" s="28" t="s">
+      <c r="E148" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F148" s="23">
         <f>IF(ISBLANK(E148),0,IF(E148=Answers!E148,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G148" s="39" t="s">
+      <c r="G148" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="H148" s="44"/>
+      <c r="H148" s="43"/>
     </row>
     <row r="149" spans="1:8" ht="25.5" customHeight="1">
       <c r="A149" s="1"/>
@@ -9149,17 +9310,17 @@
       <c r="D149" s="11">
         <v>7</v>
       </c>
-      <c r="E149" s="28" t="s">
+      <c r="E149" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F149" s="23">
         <f>IF(ISBLANK(E149),0,IF(E149=Answers!E149,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G149" s="39" t="s">
+      <c r="G149" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="H149" s="44"/>
+      <c r="H149" s="43"/>
     </row>
     <row r="150" spans="1:8" ht="25.5" customHeight="1">
       <c r="A150" s="1"/>
@@ -9173,17 +9334,17 @@
       <c r="D150" s="11">
         <v>7</v>
       </c>
-      <c r="E150" s="28" t="s">
+      <c r="E150" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F150" s="23">
         <f>IF(ISBLANK(E150),0,IF(E150=Answers!E150,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G150" s="39" t="s">
+      <c r="G150" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="H150" s="44"/>
+      <c r="H150" s="43"/>
     </row>
     <row r="151" spans="1:8" ht="25.5" customHeight="1">
       <c r="A151" s="1"/>
@@ -9197,17 +9358,17 @@
       <c r="D151" s="11">
         <v>7</v>
       </c>
-      <c r="E151" s="28" t="s">
+      <c r="E151" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F151" s="23">
         <f>IF(ISBLANK(E151),0,IF(E151=Answers!E151,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G151" s="39" t="s">
+      <c r="G151" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="H151" s="44"/>
+      <c r="H151" s="43"/>
     </row>
     <row r="152" spans="1:8" ht="25.5" customHeight="1">
       <c r="A152" s="1"/>
@@ -9221,17 +9382,17 @@
       <c r="D152" s="11">
         <v>7</v>
       </c>
-      <c r="E152" s="28" t="s">
+      <c r="E152" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F152" s="23">
         <f>IF(ISBLANK(E152),0,IF(E152=Answers!E152,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G152" s="39" t="s">
+      <c r="G152" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="H152" s="44"/>
+      <c r="H152" s="43"/>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1">
       <c r="A153" s="1"/>
@@ -9255,10 +9416,10 @@
     </row>
     <row r="155" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="56" t="s">
+      <c r="B155" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="57" t="s">
+      <c r="C155" s="56" t="s">
         <v>23</v>
       </c>
       <c r="D155" s="21" t="s">
@@ -9339,23 +9500,23 @@
     </row>
     <row r="162" spans="1:8" ht="25.5" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="59" t="s">
+      <c r="B162" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C162" s="59" t="s">
+      <c r="C162" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="59" t="s">
+      <c r="D162" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="59" t="s">
+      <c r="E162" s="58" t="s">
         <v>6</v>
       </c>
       <c r="F162" s="23"/>
-      <c r="G162" s="63" t="s">
+      <c r="G162" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="H162" s="64"/>
+      <c r="H162" s="63"/>
     </row>
     <row r="163" spans="1:8" ht="15" customHeight="1">
       <c r="A163" s="1"/>
@@ -9364,7 +9525,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="23"/>
-      <c r="G163" s="36"/>
+      <c r="G163" s="35"/>
       <c r="H163" s="13"/>
     </row>
     <row r="164" spans="1:8" ht="25.5" customHeight="1">
@@ -9378,17 +9539,17 @@
       <c r="D164" s="11">
         <v>0</v>
       </c>
-      <c r="E164" s="27" t="s">
+      <c r="E164" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F164" s="23">
         <f>IF(ISBLANK(E164),0,IF(E164=Answers!E164,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G164" s="45" t="s">
+      <c r="G164" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="H164" s="45"/>
+      <c r="H164" s="44"/>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1">
       <c r="A165" s="1"/>
@@ -9413,17 +9574,17 @@
       <c r="D166" s="11">
         <v>9</v>
       </c>
-      <c r="E166" s="27" t="s">
+      <c r="E166" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F166" s="23">
         <f>IF(ISBLANK(E166),0,IF(E166=Answers!E166,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G166" s="45" t="s">
+      <c r="G166" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="H166" s="45"/>
+      <c r="H166" s="44"/>
     </row>
     <row r="167" spans="1:8" ht="25.5" customHeight="1">
       <c r="A167" s="1"/>
@@ -9437,17 +9598,17 @@
       <c r="D167" s="11">
         <v>9</v>
       </c>
-      <c r="E167" s="27" t="s">
+      <c r="E167" s="26" t="s">
         <v>42</v>
       </c>
       <c r="F167" s="23">
         <f>IF(ISBLANK(E167),0,IF(E167=Answers!E167,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G167" s="45" t="s">
+      <c r="G167" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H167" s="45"/>
+      <c r="H167" s="44"/>
     </row>
     <row r="168" spans="1:8" ht="25.5" customHeight="1">
       <c r="A168" s="1"/>
@@ -9461,17 +9622,17 @@
       <c r="D168" s="11">
         <v>9</v>
       </c>
-      <c r="E168" s="27" t="s">
+      <c r="E168" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F168" s="23">
         <f>IF(ISBLANK(E168),0,IF(E168=Answers!E168,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G168" s="45" t="s">
+      <c r="G168" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="H168" s="45"/>
+      <c r="H168" s="44"/>
     </row>
     <row r="169" spans="1:8" ht="25.5" customHeight="1">
       <c r="A169" s="1"/>
@@ -9485,17 +9646,17 @@
       <c r="D169" s="11">
         <v>9</v>
       </c>
-      <c r="E169" s="27" t="s">
+      <c r="E169" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F169" s="23">
         <f>IF(ISBLANK(E169),0,IF(E169=Answers!E169,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G169" s="45" t="s">
+      <c r="G169" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="H169" s="45"/>
+      <c r="H169" s="44"/>
     </row>
     <row r="170" spans="1:8" ht="25.5" customHeight="1">
       <c r="A170" s="1"/>
@@ -9509,17 +9670,17 @@
       <c r="D170" s="11">
         <v>9</v>
       </c>
-      <c r="E170" s="27" t="s">
+      <c r="E170" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F170" s="23">
         <f>IF(ISBLANK(E170),0,IF(E170=Answers!E170,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G170" s="45" t="s">
+      <c r="G170" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="H170" s="45"/>
+      <c r="H170" s="44"/>
     </row>
     <row r="171" spans="1:8" ht="25.5" customHeight="1">
       <c r="A171" s="1"/>
@@ -9533,17 +9694,17 @@
       <c r="D171" s="11">
         <v>9</v>
       </c>
-      <c r="E171" s="27" t="s">
+      <c r="E171" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F171" s="23">
         <f>IF(ISBLANK(E171),0,IF(E171=Answers!E171,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G171" s="45" t="s">
+      <c r="G171" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="H171" s="45"/>
+      <c r="H171" s="44"/>
     </row>
     <row r="172" spans="1:8" ht="25.5" customHeight="1">
       <c r="A172" s="1"/>
@@ -9557,17 +9718,17 @@
       <c r="D172" s="11">
         <v>9</v>
       </c>
-      <c r="E172" s="27" t="s">
+      <c r="E172" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F172" s="23">
         <f>IF(ISBLANK(E172),0,IF(E172=Answers!E172,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G172" s="45" t="s">
+      <c r="G172" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="H172" s="45"/>
+      <c r="H172" s="44"/>
     </row>
     <row r="173" spans="1:8" ht="25.5" customHeight="1">
       <c r="A173" s="1"/>
@@ -9581,17 +9742,17 @@
       <c r="D173" s="11">
         <v>9</v>
       </c>
-      <c r="E173" s="27" t="s">
+      <c r="E173" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F173" s="23">
         <f>IF(ISBLANK(E173),0,IF(E173=Answers!E173,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G173" s="45" t="s">
+      <c r="G173" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="H173" s="45"/>
+      <c r="H173" s="44"/>
     </row>
     <row r="174" spans="1:8" ht="25.5" customHeight="1">
       <c r="A174" s="1"/>
@@ -9605,17 +9766,17 @@
       <c r="D174" s="11">
         <v>9</v>
       </c>
-      <c r="E174" s="27" t="s">
+      <c r="E174" s="26" t="s">
         <v>51</v>
       </c>
       <c r="F174" s="23">
         <f>IF(ISBLANK(E174),0,IF(E174=Answers!E174,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G174" s="45" t="s">
+      <c r="G174" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="H174" s="45"/>
+      <c r="H174" s="44"/>
     </row>
     <row r="175" spans="1:8" ht="25.5" customHeight="1">
       <c r="A175" s="1"/>
@@ -9629,17 +9790,17 @@
       <c r="D175" s="11">
         <v>9</v>
       </c>
-      <c r="E175" s="27" t="s">
+      <c r="E175" s="26" t="s">
         <v>55</v>
       </c>
       <c r="F175" s="23">
         <f>IF(ISBLANK(E175),0,IF(E175=Answers!E175,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G175" s="45" t="s">
+      <c r="G175" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H175" s="45"/>
+      <c r="H175" s="44"/>
     </row>
     <row r="176" spans="1:8" ht="25.5" customHeight="1">
       <c r="A176" s="1"/>
@@ -9653,17 +9814,17 @@
       <c r="D176" s="11">
         <v>9</v>
       </c>
-      <c r="E176" s="27" t="s">
+      <c r="E176" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F176" s="23">
         <f>IF(ISBLANK(E176),0,IF(E176=Answers!E176,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G176" s="45" t="s">
+      <c r="G176" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="H176" s="45"/>
+      <c r="H176" s="44"/>
     </row>
     <row r="177" spans="1:8" ht="25.5" customHeight="1">
       <c r="A177" s="1"/>
@@ -9677,17 +9838,17 @@
       <c r="D177" s="11">
         <v>9</v>
       </c>
-      <c r="E177" s="27" t="s">
+      <c r="E177" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F177" s="23">
         <f>IF(ISBLANK(E177),0,IF(E177=Answers!E177,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G177" s="45" t="s">
+      <c r="G177" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="H177" s="45"/>
+      <c r="H177" s="44"/>
     </row>
     <row r="178" spans="1:8" ht="25.5" customHeight="1">
       <c r="A178" s="1"/>
@@ -9701,17 +9862,17 @@
       <c r="D178" s="11">
         <v>9</v>
       </c>
-      <c r="E178" s="27" t="s">
+      <c r="E178" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F178" s="23">
         <f>IF(ISBLANK(E178),0,IF(E178=Answers!E178,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G178" s="45" t="s">
+      <c r="G178" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="H178" s="46"/>
+      <c r="H178" s="45"/>
     </row>
     <row r="179" spans="1:8" ht="25.5" customHeight="1">
       <c r="A179" s="1"/>
@@ -9725,17 +9886,17 @@
       <c r="D179" s="11">
         <v>9</v>
       </c>
-      <c r="E179" s="27" t="s">
+      <c r="E179" s="26" t="s">
         <v>57</v>
       </c>
       <c r="F179" s="23">
         <f>IF(ISBLANK(E179),0,IF(E179=Answers!E179,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G179" s="45" t="s">
+      <c r="G179" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="H179" s="46"/>
+      <c r="H179" s="45"/>
     </row>
     <row r="180" spans="1:8" ht="25.5" customHeight="1">
       <c r="A180" s="1"/>
@@ -9749,17 +9910,17 @@
       <c r="D180" s="11">
         <v>9</v>
       </c>
-      <c r="E180" s="27" t="s">
+      <c r="E180" s="26" t="s">
         <v>52</v>
       </c>
       <c r="F180" s="23">
         <f>IF(ISBLANK(E180),0,IF(E180=Answers!E180,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G180" s="45" t="s">
+      <c r="G180" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H180" s="46"/>
+      <c r="H180" s="45"/>
     </row>
     <row r="181" spans="1:8" ht="25.5" customHeight="1">
       <c r="A181" s="1"/>
@@ -9773,17 +9934,17 @@
       <c r="D181" s="11">
         <v>9</v>
       </c>
-      <c r="E181" s="27" t="s">
+      <c r="E181" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F181" s="23">
         <f>IF(ISBLANK(E181),0,IF(E181=Answers!E181,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G181" s="45" t="s">
+      <c r="G181" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="H181" s="46"/>
+      <c r="H181" s="45"/>
     </row>
     <row r="182" spans="1:8" ht="25.5" customHeight="1">
       <c r="A182" s="1"/>
@@ -9797,17 +9958,17 @@
       <c r="D182" s="11">
         <v>9</v>
       </c>
-      <c r="E182" s="27" t="s">
+      <c r="E182" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F182" s="23">
         <f>IF(ISBLANK(E182),0,IF(E182=Answers!E182,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G182" s="45" t="s">
+      <c r="G182" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="H182" s="46"/>
+      <c r="H182" s="45"/>
     </row>
     <row r="183" spans="1:8" ht="25.5" customHeight="1">
       <c r="A183" s="1"/>
@@ -9821,17 +9982,17 @@
       <c r="D183" s="11">
         <v>9</v>
       </c>
-      <c r="E183" s="27" t="s">
+      <c r="E183" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F183" s="23">
         <f>IF(ISBLANK(E183),0,IF(E183=Answers!E183,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G183" s="45" t="s">
+      <c r="G183" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="H183" s="46"/>
+      <c r="H183" s="45"/>
     </row>
     <row r="184" spans="1:8" ht="25.5" customHeight="1">
       <c r="A184" s="1"/>
@@ -9845,17 +10006,17 @@
       <c r="D184" s="11">
         <v>9</v>
       </c>
-      <c r="E184" s="27" t="s">
+      <c r="E184" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F184" s="23">
         <f>IF(ISBLANK(E184),0,IF(E184=Answers!E184,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G184" s="45" t="s">
+      <c r="G184" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H184" s="46"/>
+      <c r="H184" s="45"/>
     </row>
     <row r="185" spans="1:8" ht="25.5" customHeight="1">
       <c r="A185" s="1"/>
@@ -9869,17 +10030,17 @@
       <c r="D185" s="11">
         <v>9</v>
       </c>
-      <c r="E185" s="27" t="s">
+      <c r="E185" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F185" s="23">
         <f>IF(ISBLANK(E185),0,IF(E185=Answers!E185,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G185" s="45" t="s">
+      <c r="G185" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H185" s="46"/>
+      <c r="H185" s="45"/>
     </row>
     <row r="186" spans="1:8" ht="15" customHeight="1"/>
     <row r="187" spans="1:8" ht="15" customHeight="1"/>
@@ -10127,7 +10288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9233C9F6-2C4D-4F2D-9133-C5A009C813CD}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
@@ -10137,692 +10300,692 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="27.6" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="93" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="60"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="91" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91" t="s">
+      <c r="F3" s="89"/>
+      <c r="G3" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="51"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="51"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="51"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="50" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="51"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="55" t="b">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="51"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="50" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="51"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="51"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="51"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="51"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="50" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="51"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="50" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="51"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="50" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="51"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="54" t="b">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="51"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="51"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="50" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="51"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="51"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="50" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="51"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="51"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="50" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="51"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="51"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="50" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="51"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="50" t="s">
+      <c r="G17" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="50" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="51"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="51"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="50" t="s">
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="51"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="50" t="s">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="51"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="51"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="50" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="51"/>
-      <c r="B22" s="50" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="50" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="51"/>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="55" t="b">
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="51"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="51"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="50" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="J24" s="51"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="51"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="55" t="b">
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="51"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="50" t="s">
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="51"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="51"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="50" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="51"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="51"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="50" t="s">
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="51"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="51"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="50" t="s">
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="51"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I29">
@@ -10855,238 +11018,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="27">
-      <c r="A2" s="52"/>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="61"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="62">
+      <c r="A3" s="51"/>
+      <c r="B3" s="61">
         <v>1587</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="52"/>
-      <c r="B4" s="62">
+      <c r="A4" s="51"/>
+      <c r="B4" s="61">
         <v>1381</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="52"/>
-      <c r="B5" s="62">
+      <c r="A5" s="51"/>
+      <c r="B5" s="61">
         <v>1351</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="52"/>
-      <c r="B6" s="62">
+      <c r="A6" s="51"/>
+      <c r="B6" s="61">
         <v>1170</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="52"/>
-      <c r="B7" s="62">
+      <c r="A7" s="51"/>
+      <c r="B7" s="61">
         <v>1601</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="52"/>
-      <c r="B8" s="62">
+      <c r="A8" s="51"/>
+      <c r="B8" s="61">
         <v>1343</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="52"/>
-      <c r="B9" s="62">
+      <c r="A9" s="51"/>
+      <c r="B9" s="61">
         <v>1492</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="52"/>
-      <c r="B10" s="62">
+      <c r="A10" s="51"/>
+      <c r="B10" s="61">
         <v>1215</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62">
+      <c r="A11" s="51"/>
+      <c r="B11" s="61">
         <v>1209</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62">
+      <c r="A12" s="51"/>
+      <c r="B12" s="61">
         <v>1543</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62">
+      <c r="A13" s="51"/>
+      <c r="B13" s="61">
         <v>1095</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62">
+      <c r="A14" s="51"/>
+      <c r="B14" s="61">
         <v>1086</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="62">
+      <c r="A15" s="51"/>
+      <c r="B15" s="61">
         <v>1305</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="52"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="52"/>
-      <c r="B16" s="62">
+      <c r="A16" s="51"/>
+      <c r="B16" s="61">
         <v>1440</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="52"/>
-      <c r="B17" s="62">
+      <c r="A17" s="51"/>
+      <c r="B17" s="61">
         <v>1376</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="52"/>
-      <c r="B18" s="62">
+      <c r="A18" s="51"/>
+      <c r="B18" s="61">
         <v>1138</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="51"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="62">
+      <c r="A19" s="51"/>
+      <c r="B19" s="61">
         <v>1348</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="51"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="52"/>
-      <c r="B20" s="62">
+      <c r="A20" s="51"/>
+      <c r="B20" s="61">
         <v>1235</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="62">
+      <c r="A21" s="51"/>
+      <c r="B21" s="61">
         <v>1395</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62">
+      <c r="A22" s="51"/>
+      <c r="B22" s="61">
         <v>1588</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="52"/>
-      <c r="B23" s="62">
+      <c r="A23" s="51"/>
+      <c r="B23" s="61">
         <v>1476</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="52"/>
-      <c r="B24" s="62">
+      <c r="A24" s="51"/>
+      <c r="B24" s="61">
         <v>1315</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D24">

--- a/RightRoyalBattlePartICase0_withanswers.xlsx
+++ b/RightRoyalBattlePartICase0_withanswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E63F65F-51F0-4B57-A87E-3C7BC425BABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941EB651-494C-4D40-A6E3-D816C314DBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E63FEAF0-1E5E-4907-9FA7-7687370CAB07}"/>
   </bookViews>
@@ -50,6 +50,8 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_nD">Timeline!$B$3:$B$24</definedName>
+    <definedName name="_nE">Timeline!$C$3:$C$24</definedName>
     <definedName name="IQ_DNTM" hidden="1">700000</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
@@ -2371,6 +2373,35 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="787" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{D4C74456-4DB7-4973-AC83-16C0AC19A61F}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{E1A67A4C-ED9D-4C9A-A854-6B127B1B0CB6}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7241B139-8C14-411D-ABA2-1128C253CEB4}">
   <sheetPr>
@@ -2378,8 +2409,8 @@
   </sheetPr>
   <dimension ref="A1:L429"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101:E120"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15.6"/>
@@ -2862,7 +2893,7 @@
     <row r="37" spans="2:12" ht="15" customHeight="1">
       <c r="J37" s="67" cm="1">
         <f t="array" ref="J37">SUMPRODUCT(--($F$30:$F$187=1),$D$30:$D$187)</f>
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="K37" s="68"/>
       <c r="L37"/>
@@ -4864,10 +4895,13 @@
       <c r="D133" s="11">
         <v>7</v>
       </c>
-      <c r="E133" s="27"/>
+      <c r="E133" s="27" t="str" cm="1">
+        <f t="array" ref="E133">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G133,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>William I</v>
+      </c>
       <c r="F133" s="23">
         <f>IF(ISBLANK(E133),0,IF(E133=Answers!E133,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="38" t="s">
         <v>165</v>
@@ -4889,10 +4923,13 @@
       <c r="D134" s="11">
         <v>7</v>
       </c>
-      <c r="E134" s="27"/>
+      <c r="E134" s="27" t="str" cm="1">
+        <f t="array" ref="E134">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G134,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Henry VI</v>
+      </c>
       <c r="F134" s="23">
         <f>IF(ISBLANK(E134),0,IF(E134=Answers!E134,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="38" t="s">
         <v>166</v>
@@ -4914,10 +4951,13 @@
       <c r="D135" s="11">
         <v>7</v>
       </c>
-      <c r="E135" s="27"/>
+      <c r="E135" s="27" t="str" cm="1">
+        <f t="array" ref="E135">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G135,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward IV</v>
+      </c>
       <c r="F135" s="23">
         <f>IF(ISBLANK(E135),0,IF(E135=Answers!E135,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="38" t="s">
         <v>159</v>
@@ -4939,10 +4979,13 @@
       <c r="D136" s="11">
         <v>7</v>
       </c>
-      <c r="E136" s="27"/>
+      <c r="E136" s="27" t="str" cm="1">
+        <f t="array" ref="E136">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G136,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward I</v>
+      </c>
       <c r="F136" s="23">
         <f>IF(ISBLANK(E136),0,IF(E136=Answers!E136,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="38" t="s">
         <v>151</v>
@@ -4964,10 +5007,13 @@
       <c r="D137" s="11">
         <v>7</v>
       </c>
-      <c r="E137" s="27"/>
+      <c r="E137" s="27" t="str" cm="1">
+        <f t="array" ref="E137">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G137,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Henry V</v>
+      </c>
       <c r="F137" s="23">
         <f>IF(ISBLANK(E137),0,IF(E137=Answers!E137,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="38" t="s">
         <v>162</v>
@@ -4989,10 +5035,13 @@
       <c r="D138" s="11">
         <v>7</v>
       </c>
-      <c r="E138" s="27"/>
+      <c r="E138" s="27" t="str" cm="1">
+        <f t="array" ref="E138">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G138,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>William II</v>
+      </c>
       <c r="F138" s="23">
         <f>IF(ISBLANK(E138),0,IF(E138=Answers!E138,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="38" t="s">
         <v>167</v>
@@ -5014,10 +5063,13 @@
       <c r="D139" s="11">
         <v>7</v>
       </c>
-      <c r="E139" s="27"/>
+      <c r="E139" s="27" t="str" cm="1">
+        <f t="array" ref="E139">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G139,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Henry V</v>
+      </c>
       <c r="F139" s="23">
         <f>IF(ISBLANK(E139),0,IF(E139=Answers!E139,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="38" t="s">
         <v>152</v>
@@ -5039,10 +5091,13 @@
       <c r="D140" s="11">
         <v>7</v>
       </c>
-      <c r="E140" s="27"/>
+      <c r="E140" s="27" t="str" cm="1">
+        <f t="array" ref="E140">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G140,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward IV</v>
+      </c>
       <c r="F140" s="23">
         <f>IF(ISBLANK(E140),0,IF(E140=Answers!E140,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="38" t="s">
         <v>156</v>
@@ -5064,10 +5119,13 @@
       <c r="D141" s="11">
         <v>7</v>
       </c>
-      <c r="E141" s="27"/>
+      <c r="E141" s="27" t="str" cm="1">
+        <f t="array" ref="E141">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G141,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Richard I</v>
+      </c>
       <c r="F141" s="23">
         <f>IF(ISBLANK(E141),0,IF(E141=Answers!E141,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="38" t="s">
         <v>153</v>
@@ -5089,10 +5147,13 @@
       <c r="D142" s="11">
         <v>7</v>
       </c>
-      <c r="E142" s="27"/>
+      <c r="E142" s="27" t="str" cm="1">
+        <f t="array" ref="E142">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G142,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Henry VIII</v>
+      </c>
       <c r="F142" s="23">
         <f>IF(ISBLANK(E142),0,IF(E142=Answers!E142,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="38" t="s">
         <v>168</v>
@@ -5114,10 +5175,13 @@
       <c r="D143" s="11">
         <v>7</v>
       </c>
-      <c r="E143" s="27"/>
+      <c r="E143" s="27" t="str" cm="1">
+        <f t="array" ref="E143">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G143,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Henry I</v>
+      </c>
       <c r="F143" s="23">
         <f>IF(ISBLANK(E143),0,IF(E143=Answers!E143,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" s="38" t="s">
         <v>169</v>
@@ -5139,10 +5203,13 @@
       <c r="D144" s="11">
         <v>7</v>
       </c>
-      <c r="E144" s="27"/>
+      <c r="E144" s="27" t="str" cm="1">
+        <f t="array" ref="E144">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G144,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward I</v>
+      </c>
       <c r="F144" s="23">
         <f>IF(ISBLANK(E144),0,IF(E144=Answers!E144,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="38" t="s">
         <v>161</v>
@@ -5164,10 +5231,13 @@
       <c r="D145" s="11">
         <v>7</v>
       </c>
-      <c r="E145" s="27"/>
+      <c r="E145" s="27" t="str" cm="1">
+        <f t="array" ref="E145">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G145,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward IV</v>
+      </c>
       <c r="F145" s="23">
         <f>IF(ISBLANK(E145),0,IF(E145=Answers!E145,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="38" t="s">
         <v>170</v>
@@ -5189,10 +5259,13 @@
       <c r="D146" s="11">
         <v>7</v>
       </c>
-      <c r="E146" s="27"/>
+      <c r="E146" s="27" t="str" cm="1">
+        <f t="array" ref="E146">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G146,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward IV</v>
+      </c>
       <c r="F146" s="23">
         <f>IF(ISBLANK(E146),0,IF(E146=Answers!E146,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="38" t="s">
         <v>154</v>
@@ -5214,10 +5287,13 @@
       <c r="D147" s="11">
         <v>7</v>
       </c>
-      <c r="E147" s="27"/>
+      <c r="E147" s="27" t="str" cm="1">
+        <f t="array" ref="E147">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G147,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Richard I</v>
+      </c>
       <c r="F147" s="23">
         <f>IF(ISBLANK(E147),0,IF(E147=Answers!E147,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="38" t="s">
         <v>155</v>
@@ -5239,10 +5315,13 @@
       <c r="D148" s="11">
         <v>7</v>
       </c>
-      <c r="E148" s="27"/>
+      <c r="E148" s="27" t="str" cm="1">
+        <f t="array" ref="E148">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G148,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward III</v>
+      </c>
       <c r="F148" s="23">
         <f>IF(ISBLANK(E148),0,IF(E148=Answers!E148,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" s="38" t="s">
         <v>164</v>
@@ -5264,10 +5343,13 @@
       <c r="D149" s="11">
         <v>7</v>
       </c>
-      <c r="E149" s="27"/>
+      <c r="E149" s="27" t="str" cm="1">
+        <f t="array" ref="E149">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G149,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Stephen</v>
+      </c>
       <c r="F149" s="23">
         <f>IF(ISBLANK(E149),0,IF(E149=Answers!E149,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" s="38" t="s">
         <v>160</v>
@@ -5289,10 +5371,13 @@
       <c r="D150" s="11">
         <v>7</v>
       </c>
-      <c r="E150" s="27"/>
+      <c r="E150" s="27" t="str" cm="1">
+        <f t="array" ref="E150">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G150,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward III</v>
+      </c>
       <c r="F150" s="23">
         <f>IF(ISBLANK(E150),0,IF(E150=Answers!E150,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" s="38" t="s">
         <v>157</v>
@@ -5314,10 +5399,13 @@
       <c r="D151" s="11">
         <v>7</v>
       </c>
-      <c r="E151" s="27"/>
+      <c r="E151" s="27" t="str" cm="1">
+        <f t="array" ref="E151">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G151,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward II</v>
+      </c>
       <c r="F151" s="23">
         <f>IF(ISBLANK(E151),0,IF(E151=Answers!E151,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" s="38" t="s">
         <v>163</v>
@@ -5339,10 +5427,13 @@
       <c r="D152" s="11">
         <v>7</v>
       </c>
-      <c r="E152" s="27"/>
+      <c r="E152" s="27" t="str" cm="1">
+        <f t="array" ref="E152">_xlfn.LET(_xlpm.z,ISNUMBER(FIND(G152,'Kings and Queens'!$I$5:$I$29)),_xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,_xlpm.z))</f>
+        <v>Edward I</v>
+      </c>
       <c r="F152" s="23">
         <f>IF(ISBLANK(E152),0,IF(E152=Answers!E152,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" s="38" t="s">
         <v>158</v>
@@ -5535,10 +5626,19 @@
       <c r="D166" s="11">
         <v>9</v>
       </c>
-      <c r="E166" s="26"/>
+      <c r="E166" s="26" t="str" cm="1">
+        <f t="array" ref="E166">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G166,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Edward III</v>
+      </c>
       <c r="F166" s="23">
         <f>IF(ISBLANK(E166),0,IF(E166=Answers!E166,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="44" t="s">
         <v>193</v>
@@ -5560,10 +5660,19 @@
       <c r="D167" s="11">
         <v>9</v>
       </c>
-      <c r="E167" s="26"/>
+      <c r="E167" s="26" t="str" cm="1">
+        <f t="array" ref="E167">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G167,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Henry III</v>
+      </c>
       <c r="F167" s="23">
         <f>IF(ISBLANK(E167),0,IF(E167=Answers!E167,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="44" t="s">
         <v>198</v>
@@ -5585,10 +5694,19 @@
       <c r="D168" s="11">
         <v>9</v>
       </c>
-      <c r="E168" s="26"/>
+      <c r="E168" s="26" t="str" cm="1">
+        <f t="array" ref="E168">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G168,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Elizabeth I</v>
+      </c>
       <c r="F168" s="23">
         <f>IF(ISBLANK(E168),0,IF(E168=Answers!E168,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="44" t="s">
         <v>183</v>
@@ -5610,10 +5728,19 @@
       <c r="D169" s="11">
         <v>9</v>
       </c>
-      <c r="E169" s="26"/>
+      <c r="E169" s="26" t="str" cm="1">
+        <f t="array" ref="E169">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G169,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Henry VII</v>
+      </c>
       <c r="F169" s="23">
         <f>IF(ISBLANK(E169),0,IF(E169=Answers!E169,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" s="44" t="s">
         <v>184</v>
@@ -5635,10 +5762,19 @@
       <c r="D170" s="11">
         <v>9</v>
       </c>
-      <c r="E170" s="26"/>
+      <c r="E170" s="26" t="str" cm="1">
+        <f t="array" ref="E170">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G170,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Edward III</v>
+      </c>
       <c r="F170" s="23">
         <f>IF(ISBLANK(E170),0,IF(E170=Answers!E170,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="44" t="s">
         <v>180</v>
@@ -5660,10 +5796,19 @@
       <c r="D171" s="11">
         <v>9</v>
       </c>
-      <c r="E171" s="26"/>
+      <c r="E171" s="26" t="str" cm="1">
+        <f t="array" ref="E171">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G171,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Richard II</v>
+      </c>
       <c r="F171" s="23">
         <f>IF(ISBLANK(E171),0,IF(E171=Answers!E171,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="44" t="s">
         <v>181</v>
@@ -5685,10 +5830,19 @@
       <c r="D172" s="11">
         <v>9</v>
       </c>
-      <c r="E172" s="26"/>
+      <c r="E172" s="26" t="str" cm="1">
+        <f t="array" ref="E172">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G172,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Henry II</v>
+      </c>
       <c r="F172" s="23">
         <f>IF(ISBLANK(E172),0,IF(E172=Answers!E172,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" s="44" t="s">
         <v>179</v>
@@ -5710,10 +5864,19 @@
       <c r="D173" s="11">
         <v>9</v>
       </c>
-      <c r="E173" s="26"/>
+      <c r="E173" s="26" t="str" cm="1">
+        <f t="array" ref="E173">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G173,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Edward III</v>
+      </c>
       <c r="F173" s="23">
         <f>IF(ISBLANK(E173),0,IF(E173=Answers!E173,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" s="44" t="s">
         <v>187</v>
@@ -5735,10 +5898,19 @@
       <c r="D174" s="11">
         <v>9</v>
       </c>
-      <c r="E174" s="26"/>
+      <c r="E174" s="26" t="str" cm="1">
+        <f t="array" ref="E174">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G174,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Edward I</v>
+      </c>
       <c r="F174" s="23">
         <f>IF(ISBLANK(E174),0,IF(E174=Answers!E174,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="44" t="s">
         <v>196</v>
@@ -5760,10 +5932,19 @@
       <c r="D175" s="11">
         <v>9</v>
       </c>
-      <c r="E175" s="26"/>
+      <c r="E175" s="26" t="str" cm="1">
+        <f t="array" ref="E175">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G175,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Henry VIII</v>
+      </c>
       <c r="F175" s="23">
         <f>IF(ISBLANK(E175),0,IF(E175=Answers!E175,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="44" t="s">
         <v>189</v>
@@ -5785,10 +5966,19 @@
       <c r="D176" s="11">
         <v>9</v>
       </c>
-      <c r="E176" s="26"/>
+      <c r="E176" s="26" t="str" cm="1">
+        <f t="array" ref="E176">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G176,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Edward III</v>
+      </c>
       <c r="F176" s="23">
         <f>IF(ISBLANK(E176),0,IF(E176=Answers!E176,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" s="44" t="s">
         <v>188</v>
@@ -5810,10 +6000,19 @@
       <c r="D177" s="11">
         <v>9</v>
       </c>
-      <c r="E177" s="26"/>
+      <c r="E177" s="26" t="str" cm="1">
+        <f t="array" ref="E177">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G177,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>William II</v>
+      </c>
       <c r="F177" s="23">
         <f>IF(ISBLANK(E177),0,IF(E177=Answers!E177,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="44" t="s">
         <v>194</v>
@@ -5835,10 +6034,19 @@
       <c r="D178" s="11">
         <v>9</v>
       </c>
-      <c r="E178" s="26"/>
+      <c r="E178" s="26" t="str" cm="1">
+        <f t="array" ref="E178">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G178,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Elizabeth I</v>
+      </c>
       <c r="F178" s="23">
         <f>IF(ISBLANK(E178),0,IF(E178=Answers!E178,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" s="44" t="s">
         <v>186</v>
@@ -5860,10 +6068,19 @@
       <c r="D179" s="11">
         <v>9</v>
       </c>
-      <c r="E179" s="26"/>
+      <c r="E179" s="26" t="str" cm="1">
+        <f t="array" ref="E179">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G179,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Henry VI</v>
+      </c>
       <c r="F179" s="23">
         <f>IF(ISBLANK(E179),0,IF(E179=Answers!E179,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="44" t="s">
         <v>191</v>
@@ -5885,10 +6102,19 @@
       <c r="D180" s="11">
         <v>9</v>
       </c>
-      <c r="E180" s="26"/>
+      <c r="E180" s="26" t="str" cm="1">
+        <f t="array" ref="E180">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G180,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Edward II</v>
+      </c>
       <c r="F180" s="23">
         <f>IF(ISBLANK(E180),0,IF(E180=Answers!E180,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" s="44" t="s">
         <v>203</v>
@@ -5910,10 +6136,19 @@
       <c r="D181" s="11">
         <v>9</v>
       </c>
-      <c r="E181" s="26"/>
+      <c r="E181" s="26" t="str" cm="1">
+        <f t="array" ref="E181">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G181,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Richard II</v>
+      </c>
       <c r="F181" s="23">
         <f>IF(ISBLANK(E181),0,IF(E181=Answers!E181,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="44" t="s">
         <v>197</v>
@@ -5935,10 +6170,19 @@
       <c r="D182" s="11">
         <v>9</v>
       </c>
-      <c r="E182" s="26"/>
+      <c r="E182" s="26" t="str" cm="1">
+        <f t="array" ref="E182">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G182,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>William I</v>
+      </c>
       <c r="F182" s="23">
         <f>IF(ISBLANK(E182),0,IF(E182=Answers!E182,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="44" t="s">
         <v>192</v>
@@ -5960,10 +6204,19 @@
       <c r="D183" s="11">
         <v>9</v>
       </c>
-      <c r="E183" s="26"/>
+      <c r="E183" s="26" t="str" cm="1">
+        <f t="array" ref="E183">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G183,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>John</v>
+      </c>
       <c r="F183" s="23">
         <f>IF(ISBLANK(E183),0,IF(E183=Answers!E183,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="44" t="s">
         <v>185</v>
@@ -5985,10 +6238,19 @@
       <c r="D184" s="11">
         <v>9</v>
       </c>
-      <c r="E184" s="26"/>
+      <c r="E184" s="26" t="str" cm="1">
+        <f t="array" ref="E184">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G184,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>John</v>
+      </c>
       <c r="F184" s="23">
         <f>IF(ISBLANK(E184),0,IF(E184=Answers!E184,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="44" t="s">
         <v>190</v>
@@ -6010,10 +6272,19 @@
       <c r="D185" s="11">
         <v>9</v>
       </c>
-      <c r="E185" s="26"/>
+      <c r="E185" s="26" t="str" cm="1">
+        <f t="array" ref="E185">_xlfn.LET(_xlpm.z, _xlfn.XLOOKUP(G185,_nE,_nD)+0,
+     _xlpm.ymn,_xlfn.MAP('Kings and Queens'!$C$5:$C$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx,_xlfn.MAP('Kings and Queens'!$D$5:$D$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymn1,_xlfn.MAP('Kings and Queens'!$E$5:$E$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlpm.ymx1,_xlfn.MAP('Kings and Queens'!$F$5:$F$29, _xlfn.LAMBDA(_xlpm.x,_xlfn.TEXTAFTER(_xlpm.x,"/",2)))+0,
+     _xlfn._xlws.FILTER('Kings and Queens'!$B$5:$B$29,(_xlpm.z&gt;=_xlpm.ymn)*(_xlpm.z&lt;=_xlpm.ymx)+IFERROR((_xlpm.z&gt;=_xlpm.ymn1)*(_xlpm.z&lt;=_xlpm.ymx1),0))
+)</f>
+        <v>Edward IV</v>
+      </c>
       <c r="F185" s="23">
         <f>IF(ISBLANK(E185),0,IF(E185=Answers!E185,1,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" s="44" t="s">
         <v>200</v>
@@ -6408,6 +6679,25 @@
           <xm:sqref>F30:F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{1031A410-801D-46D6-B471-A89C8FAE70DD}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="4RedToBlack" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="77" id="{F3BF1140-BF61-474E-9901-1B1A30F7A1CA}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -6425,25 +6715,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F66:F96 F98:F128 F130:F161 F163:F185 F44:F64</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{1031A410-801D-46D6-B471-A89C8FAE70DD}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="4RedToBlack" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{D1698869-04BE-407B-9636-84FC49FDF071}">
@@ -6515,7 +6786,7 @@
   </sheetPr>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A89" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
@@ -10288,7 +10559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9233C9F6-2C4D-4F2D-9133-C5A009C813CD}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -11008,7 +11279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C8AAE6-7082-490C-9350-D6C32A745DB2}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
@@ -11260,4 +11533,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1A67A4C-ED9D-4C9A-A854-6B127B1B0CB6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>